--- a/Dashboard - The Manor Farm.xlsx
+++ b/Dashboard - The Manor Farm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.4\Documents\Drip\Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A39C0FD-50DA-4B98-9E45-D9C17DFE59C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A342D875-856C-48E5-BEF6-E51E7531BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r9i7r7cjd1MFsLMx8ptOUjxpfCMq+B9HhvZ30L6bdAspgRf9vCLxvXMd5mkyhs4WzXBQ+c/P4Tq8MYtNd5BZEA==" workbookSaltValue="YvBCkzMS1uzbXpJ5k2FvXg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0BEC15F8-B6DB-4B84-8E40-D29E217E52CD}"/>
@@ -334,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="17">
+  <numFmts count="18">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0.000"/>
@@ -352,6 +352,7 @@
     <numFmt numFmtId="178" formatCode="0.0000000000"/>
     <numFmt numFmtId="179" formatCode="0.00000%"/>
     <numFmt numFmtId="180" formatCode="0.000000000"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -650,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1184,6 +1185,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1198,22 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,14 +1233,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1253,27 +1321,51 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1289,108 +1381,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1400,18 +1390,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1451,57 +1429,87 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1856,238 +1864,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="180" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="181" t="s">
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="181"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="180" t="s">
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="180"/>
-      <c r="R8" s="180"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178" t="s">
+      <c r="A9" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="181" t="s">
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="4"/>
@@ -2116,52 +2124,52 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="179"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="174"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="179"/>
-      <c r="R12" s="179"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="174"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="4"/>
@@ -13119,6 +13127,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WqZQsfWjiQGBlCMeU46nlxtyVD8Ckl85pJvlvkaQwNzmEXsfnQJ4i+4AyWJUymxL8mrO6ExF6hWJYmUa5gwp9w==" saltValue="p9DlvSxBImYyAkjkKJNUhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A3:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="A12:R12"/>
     <mergeCell ref="A9:C9"/>
@@ -13127,11 +13140,6 @@
     <mergeCell ref="D8:R8"/>
     <mergeCell ref="D9:R9"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A3:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{9999E64E-00E4-43B4-B397-26D2311E3278}"/>
@@ -13148,8 +13156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053FAEC9-7154-4BC8-9A9D-6D3A7BCAA104}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13237,7 +13245,7 @@
       </c>
       <c r="D9" s="106">
         <f ca="1">TODAY()-D8</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="97" t="s">
         <v>18</v>
@@ -13408,7 +13416,7 @@
   <dimension ref="A1:AN1492"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+      <selection activeCell="B39" sqref="B39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13430,9 +13438,9 @@
     <col min="22" max="25" width="12.140625" style="123" customWidth="1"/>
     <col min="26" max="26" width="1" style="124" customWidth="1"/>
     <col min="27" max="27" width="8.85546875" style="86" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="125" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" style="126" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="86" customWidth="1"/>
+    <col min="28" max="28" width="28.85546875" style="125" customWidth="1"/>
+    <col min="29" max="29" width="32" style="126" customWidth="1"/>
+    <col min="30" max="30" width="64.7109375" style="86" customWidth="1"/>
     <col min="31" max="31" width="14.140625" style="86" customWidth="1"/>
     <col min="32" max="32" width="11.28515625" style="86" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="86"/>
@@ -13440,696 +13448,696 @@
   <sheetData>
     <row r="1" spans="1:37" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="163"/>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
       <c r="Z1" s="155"/>
       <c r="AA1" s="138"/>
     </row>
     <row r="2" spans="1:37" ht="39.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="152"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="128"/>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="243" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="245"/>
       <c r="K2" s="128"/>
-      <c r="L2" s="196" t="s">
+      <c r="L2" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="198"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="245"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="196" t="s">
+      <c r="Q2" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
       <c r="U2" s="40"/>
-      <c r="V2" s="196" t="s">
+      <c r="V2" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="198"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="245"/>
       <c r="Z2" s="156"/>
       <c r="AB2" s="86"/>
       <c r="AC2" s="86"/>
-      <c r="AH2" s="217"/>
-      <c r="AI2" s="217"/>
-      <c r="AJ2" s="217"/>
-      <c r="AK2" s="217"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="207"/>
+      <c r="AJ2" s="207"/>
+      <c r="AK2" s="207"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="152"/>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="192"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="210"/>
       <c r="F3" s="127"/>
-      <c r="G3" s="190" t="s">
+      <c r="G3" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="192"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="210"/>
       <c r="K3" s="127"/>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="192"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="210"/>
       <c r="P3" s="86"/>
-      <c r="Q3" s="190" t="s">
+      <c r="Q3" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="210"/>
       <c r="U3" s="40"/>
-      <c r="V3" s="190" t="s">
+      <c r="V3" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="192"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="210"/>
       <c r="Z3" s="156"/>
       <c r="AB3" s="86"/>
       <c r="AC3" s="86"/>
-      <c r="AH3" s="218"/>
-      <c r="AI3" s="218"/>
-      <c r="AJ3" s="218"/>
-      <c r="AK3" s="218"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="241"/>
+      <c r="AJ3" s="241"/>
+      <c r="AK3" s="241"/>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="164"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="192"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="210"/>
       <c r="F4" s="60"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="192"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="60"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="210"/>
       <c r="P4" s="86"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="192"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="210"/>
       <c r="U4" s="40"/>
-      <c r="V4" s="190"/>
-      <c r="W4" s="191"/>
-      <c r="X4" s="191"/>
-      <c r="Y4" s="192"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="209"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="210"/>
       <c r="Z4" s="156"/>
       <c r="AB4" s="86"/>
       <c r="AC4" s="86"/>
-      <c r="AH4" s="218"/>
-      <c r="AI4" s="218"/>
-      <c r="AJ4" s="218"/>
-      <c r="AK4" s="218"/>
+      <c r="AH4" s="241"/>
+      <c r="AI4" s="241"/>
+      <c r="AJ4" s="241"/>
+      <c r="AK4" s="241"/>
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="164"/>
-      <c r="B5" s="202" t="e">
+      <c r="B5" s="211" t="e">
         <f>'Data Input'!D14 &amp; FIXED('Data Input'!G9*('Data Input'!G12/V5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="204"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="60"/>
-      <c r="G5" s="211" t="str">
+      <c r="G5" s="217" t="str">
         <f>FIXED(('Data Input'!G9*86400)/2592000)</f>
         <v>0.00</v>
       </c>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="213"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="219"/>
       <c r="K5" s="60"/>
-      <c r="L5" s="202" t="e">
+      <c r="L5" s="211" t="e">
         <f>'Data Input'!G11/V5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="204"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="213"/>
       <c r="P5" s="86"/>
-      <c r="Q5" s="199">
+      <c r="Q5" s="223">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="R5" s="200"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="201"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="225"/>
       <c r="U5" s="86"/>
-      <c r="V5" s="187">
+      <c r="V5" s="253">
         <f>'Data Input'!G10/'Data Input'!D10</f>
         <v>0</v>
       </c>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
-      <c r="Y5" s="189"/>
+      <c r="W5" s="254"/>
+      <c r="X5" s="254"/>
+      <c r="Y5" s="255"/>
       <c r="Z5" s="156"/>
       <c r="AB5" s="86"/>
       <c r="AC5" s="86"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="164"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="204"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="60"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="213"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="219"/>
       <c r="K6" s="60"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="204"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="213"/>
       <c r="P6" s="86"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="201"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="224"/>
+      <c r="S6" s="224"/>
+      <c r="T6" s="225"/>
       <c r="U6" s="86"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="189"/>
+      <c r="V6" s="253"/>
+      <c r="W6" s="254"/>
+      <c r="X6" s="254"/>
+      <c r="Y6" s="255"/>
       <c r="Z6" s="156"/>
       <c r="AB6" s="86"/>
       <c r="AC6" s="86"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="165"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="204"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="213"/>
       <c r="F7" s="129"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="213"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="219"/>
       <c r="K7" s="129"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="204"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="213"/>
       <c r="P7" s="86"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="201"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="224"/>
+      <c r="S7" s="224"/>
+      <c r="T7" s="225"/>
       <c r="U7" s="86"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="189"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="254"/>
+      <c r="X7" s="254"/>
+      <c r="Y7" s="255"/>
       <c r="Z7" s="156"/>
       <c r="AB7" s="86"/>
       <c r="AC7" s="86"/>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="192"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="210"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="210"/>
       <c r="K8" s="62"/>
-      <c r="L8" s="190" t="s">
+      <c r="L8" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="192"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="210"/>
       <c r="P8" s="86"/>
-      <c r="Q8" s="190" t="s">
+      <c r="Q8" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="192"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="210"/>
       <c r="U8" s="86"/>
-      <c r="V8" s="190" t="s">
+      <c r="V8" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="192"/>
+      <c r="W8" s="209"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="210"/>
       <c r="Z8" s="156"/>
       <c r="AB8" s="86"/>
       <c r="AC8" s="86"/>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="165"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="192"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="210"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="210"/>
       <c r="K9" s="62"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="192"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="210"/>
       <c r="P9" s="86"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="192"/>
+      <c r="Q9" s="208"/>
+      <c r="R9" s="209"/>
+      <c r="S9" s="209"/>
+      <c r="T9" s="210"/>
       <c r="U9" s="86"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="192"/>
+      <c r="V9" s="208"/>
+      <c r="W9" s="209"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="210"/>
       <c r="Z9" s="156"/>
       <c r="AB9" s="86"/>
       <c r="AC9" s="86"/>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="165"/>
-      <c r="B10" s="199">
+      <c r="B10" s="223">
         <f>IFERROR(('Data Input'!G9-'Data Input'!D16)/'Data Input'!D16,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="201"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="225"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="214" t="e">
+      <c r="G10" s="250" t="e">
         <f>_xlfn.CONCAT(TEXT(HOUR(24/G5/24),0)," Hrs ",TEXT(MINUTE(24/G5/24),0)," Mins")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="216"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="202" t="e">
+      <c r="L10" s="211" t="e">
         <f>'Data Input'!D14 &amp; FIXED('Data Input'!G12/V5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="204"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="213"/>
       <c r="P10" s="86"/>
-      <c r="Q10" s="193">
+      <c r="Q10" s="238">
         <f>'Data Input'!J9</f>
         <v>0.91497899999999999</v>
       </c>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
-      <c r="T10" s="195"/>
+      <c r="R10" s="239"/>
+      <c r="S10" s="239"/>
+      <c r="T10" s="240"/>
       <c r="U10" s="86"/>
-      <c r="V10" s="202" t="e">
+      <c r="V10" s="211" t="e">
         <f>V5*L5*B31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="204"/>
+      <c r="W10" s="212"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="213"/>
       <c r="Z10" s="156"/>
       <c r="AB10" s="86"/>
       <c r="AC10" s="86"/>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="166"/>
-      <c r="B11" s="199"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="201"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="225"/>
       <c r="F11" s="61"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="216"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="252"/>
       <c r="K11" s="61"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="204"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="213"/>
       <c r="P11" s="86"/>
-      <c r="Q11" s="193"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="195"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="239"/>
+      <c r="S11" s="239"/>
+      <c r="T11" s="240"/>
       <c r="U11" s="86"/>
-      <c r="V11" s="202"/>
-      <c r="W11" s="203"/>
-      <c r="X11" s="203"/>
-      <c r="Y11" s="204"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="212"/>
+      <c r="X11" s="212"/>
+      <c r="Y11" s="213"/>
       <c r="Z11" s="156"/>
       <c r="AB11" s="86"/>
       <c r="AC11" s="86"/>
-      <c r="AH11" s="218"/>
-      <c r="AI11" s="218"/>
-      <c r="AJ11" s="218"/>
-      <c r="AK11" s="218"/>
+      <c r="AH11" s="241"/>
+      <c r="AI11" s="241"/>
+      <c r="AJ11" s="241"/>
+      <c r="AK11" s="241"/>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="166"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="201"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="225"/>
       <c r="F12" s="61"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="216"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="252"/>
       <c r="K12" s="61"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="204"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="213"/>
       <c r="P12" s="86"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="194"/>
-      <c r="S12" s="194"/>
-      <c r="T12" s="195"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="239"/>
+      <c r="S12" s="239"/>
+      <c r="T12" s="240"/>
       <c r="U12" s="86"/>
-      <c r="V12" s="202"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="203"/>
-      <c r="Y12" s="204"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="212"/>
+      <c r="Y12" s="213"/>
       <c r="Z12" s="156"/>
       <c r="AB12" s="86"/>
       <c r="AC12" s="86"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="218"/>
-      <c r="AJ12" s="218"/>
-      <c r="AK12" s="218"/>
+      <c r="AH12" s="241"/>
+      <c r="AI12" s="241"/>
+      <c r="AJ12" s="241"/>
+      <c r="AK12" s="241"/>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="167"/>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="192"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="210"/>
       <c r="F13" s="132"/>
-      <c r="G13" s="190" t="s">
+      <c r="G13" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="192"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="210"/>
       <c r="K13" s="131"/>
-      <c r="L13" s="190" t="s">
+      <c r="L13" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="192"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="210"/>
       <c r="P13" s="86"/>
-      <c r="Q13" s="190" t="s">
+      <c r="Q13" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191"/>
-      <c r="T13" s="192"/>
+      <c r="R13" s="209"/>
+      <c r="S13" s="209"/>
+      <c r="T13" s="210"/>
       <c r="U13" s="86"/>
-      <c r="V13" s="190" t="s">
+      <c r="V13" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="192"/>
+      <c r="W13" s="209"/>
+      <c r="X13" s="209"/>
+      <c r="Y13" s="210"/>
       <c r="Z13" s="156"/>
       <c r="AB13" s="86"/>
       <c r="AC13" s="86"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="219"/>
-      <c r="AJ13" s="219"/>
-      <c r="AK13" s="219"/>
+      <c r="AH13" s="242"/>
+      <c r="AI13" s="242"/>
+      <c r="AJ13" s="242"/>
+      <c r="AK13" s="242"/>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="168"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="192"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="210"/>
       <c r="F14" s="88"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="192"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="210"/>
       <c r="K14" s="131"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="192"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="210"/>
       <c r="P14" s="86"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="192"/>
+      <c r="Q14" s="208"/>
+      <c r="R14" s="209"/>
+      <c r="S14" s="209"/>
+      <c r="T14" s="210"/>
       <c r="U14" s="86"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="192"/>
+      <c r="V14" s="208"/>
+      <c r="W14" s="209"/>
+      <c r="X14" s="209"/>
+      <c r="Y14" s="210"/>
       <c r="Z14" s="156"/>
       <c r="AB14" s="86"/>
       <c r="AC14" s="86"/>
-      <c r="AH14" s="219"/>
-      <c r="AI14" s="219"/>
-      <c r="AJ14" s="219"/>
-      <c r="AK14" s="219"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="242"/>
+      <c r="AJ14" s="242"/>
+      <c r="AK14" s="242"/>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="168"/>
-      <c r="B15" s="202" t="e">
+      <c r="B15" s="211" t="e">
         <f>'Data Input'!D17/FIXED(('Data Input'!G12/V5)*G5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="204"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="213"/>
       <c r="F15" s="88"/>
-      <c r="G15" s="202" t="e">
+      <c r="G15" s="211" t="e">
         <f>G5*L5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="204"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="213"/>
       <c r="K15" s="131"/>
-      <c r="L15" s="199">
+      <c r="L15" s="223">
         <f>'Data Input'!D11/'Data Input'!D10</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="201"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="225"/>
       <c r="P15" s="86"/>
-      <c r="Q15" s="202" t="e">
+      <c r="Q15" s="211" t="e">
         <f>'Data Input'!D14 &amp; FIXED((Q10*(('Data Input'!G12/V5)/L5))+((Q10*(('Data Input'!G12/V5)/L5))*Q5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" s="203"/>
-      <c r="S15" s="203"/>
-      <c r="T15" s="204"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="212"/>
+      <c r="T15" s="213"/>
       <c r="U15" s="86"/>
-      <c r="V15" s="202" t="e">
+      <c r="V15" s="211" t="e">
         <f>'Data Input'!D14&amp;FIXED(V10*'Data Input'!G18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="204"/>
+      <c r="W15" s="212"/>
+      <c r="X15" s="212"/>
+      <c r="Y15" s="213"/>
       <c r="Z15" s="156"/>
       <c r="AB15" s="86"/>
       <c r="AC15" s="86"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="219"/>
-      <c r="AJ15" s="219"/>
-      <c r="AK15" s="219"/>
+      <c r="AH15" s="242"/>
+      <c r="AI15" s="242"/>
+      <c r="AJ15" s="242"/>
+      <c r="AK15" s="242"/>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="168"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="204"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="213"/>
       <c r="K16" s="131"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="201"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="225"/>
       <c r="P16" s="86"/>
-      <c r="Q16" s="202"/>
-      <c r="R16" s="203"/>
-      <c r="S16" s="203"/>
-      <c r="T16" s="204"/>
+      <c r="Q16" s="211"/>
+      <c r="R16" s="212"/>
+      <c r="S16" s="212"/>
+      <c r="T16" s="213"/>
       <c r="U16" s="40"/>
-      <c r="V16" s="202"/>
-      <c r="W16" s="203"/>
-      <c r="X16" s="203"/>
-      <c r="Y16" s="204"/>
+      <c r="V16" s="211"/>
+      <c r="W16" s="212"/>
+      <c r="X16" s="212"/>
+      <c r="Y16" s="213"/>
       <c r="Z16" s="156"/>
       <c r="AB16" s="86"/>
       <c r="AC16" s="86"/>
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="168"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="204"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
       <c r="F17" s="130"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="204"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="213"/>
       <c r="K17" s="131"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="201"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="225"/>
       <c r="P17" s="86"/>
-      <c r="Q17" s="202"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="203"/>
-      <c r="T17" s="204"/>
+      <c r="Q17" s="211"/>
+      <c r="R17" s="212"/>
+      <c r="S17" s="212"/>
+      <c r="T17" s="213"/>
       <c r="U17" s="40"/>
-      <c r="V17" s="202"/>
-      <c r="W17" s="203"/>
-      <c r="X17" s="203"/>
-      <c r="Y17" s="204"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="212"/>
+      <c r="X17" s="212"/>
+      <c r="Y17" s="213"/>
       <c r="Z17" s="156"/>
       <c r="AB17" s="86"/>
       <c r="AC17" s="86"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="169"/>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="192"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="210"/>
       <c r="F18" s="130"/>
-      <c r="G18" s="190" t="s">
+      <c r="G18" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="191"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="192"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="210"/>
       <c r="K18" s="131"/>
-      <c r="L18" s="190" t="s">
+      <c r="L18" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="192"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="210"/>
       <c r="P18" s="86"/>
-      <c r="Q18" s="190" t="s">
+      <c r="Q18" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="192"/>
+      <c r="R18" s="209"/>
+      <c r="S18" s="209"/>
+      <c r="T18" s="210"/>
       <c r="U18" s="40"/>
-      <c r="V18" s="190" t="s">
+      <c r="V18" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="192"/>
+      <c r="W18" s="209"/>
+      <c r="X18" s="209"/>
+      <c r="Y18" s="210"/>
       <c r="Z18" s="156"/>
       <c r="AB18" s="86"/>
       <c r="AC18" s="86"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="158"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="192"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="192"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="210"/>
       <c r="K19" s="133"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="192"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="210"/>
       <c r="P19" s="86"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="192"/>
+      <c r="Q19" s="208"/>
+      <c r="R19" s="209"/>
+      <c r="S19" s="209"/>
+      <c r="T19" s="210"/>
       <c r="U19" s="40"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="192"/>
+      <c r="V19" s="208"/>
+      <c r="W19" s="209"/>
+      <c r="X19" s="209"/>
+      <c r="Y19" s="210"/>
       <c r="Z19" s="156"/>
       <c r="AB19" s="86"/>
       <c r="AC19" s="86"/>
@@ -14138,389 +14146,388 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="158"/>
-      <c r="B20" s="240" t="e">
+      <c r="B20" s="235" t="e">
         <f>('Data Input'!$G$9*Dashboard!Q10)/'Data Input'!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="242"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="237"/>
       <c r="F20" s="86"/>
-      <c r="G20" s="202" t="e">
+      <c r="G20" s="211" t="e">
         <f>'Data Input'!D14 &amp; FIXED(('Data Input'!G12/V5)*G5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="213"/>
       <c r="K20" s="86"/>
-      <c r="L20" s="199" t="e">
+      <c r="L20" s="223" t="e">
         <f>(('Data Input'!G12/V5)*G5)/('Data Input'!G9*('Data Input'!G12/V5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="200"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="201"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="225"/>
       <c r="P20" s="86"/>
-      <c r="Q20" s="193" t="e">
+      <c r="Q20" s="238" t="e">
         <f>((Q10*(('Data Input'!G12/V5)/L5))+((Q10*(('Data Input'!G12/V5)/L5))*Q5))/'Data Input'!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="194"/>
-      <c r="S20" s="194"/>
-      <c r="T20" s="195"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="239"/>
+      <c r="T20" s="240"/>
       <c r="U20" s="40"/>
-      <c r="V20" s="202" t="e">
+      <c r="V20" s="211" t="e">
         <f>'Data Input'!D14&amp; FIXED(V5*L5*(FIXED((('Data Input'!G12/V5)/L5)*(47.3/100))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" s="203"/>
-      <c r="X20" s="203"/>
-      <c r="Y20" s="204"/>
+      <c r="W20" s="212"/>
+      <c r="X20" s="212"/>
+      <c r="Y20" s="213"/>
       <c r="Z20" s="156"/>
       <c r="AB20" s="86"/>
       <c r="AC20" s="86"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="158"/>
-      <c r="B21" s="240"/>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="242"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="237"/>
       <c r="F21" s="86"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="204"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="213"/>
       <c r="K21" s="86"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="201"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="225"/>
       <c r="P21" s="86"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="194"/>
-      <c r="S21" s="194"/>
-      <c r="T21" s="195"/>
+      <c r="Q21" s="238"/>
+      <c r="R21" s="239"/>
+      <c r="S21" s="239"/>
+      <c r="T21" s="240"/>
       <c r="U21" s="40"/>
-      <c r="V21" s="202"/>
-      <c r="W21" s="203"/>
-      <c r="X21" s="203"/>
-      <c r="Y21" s="204"/>
+      <c r="V21" s="211"/>
+      <c r="W21" s="212"/>
+      <c r="X21" s="212"/>
+      <c r="Y21" s="213"/>
       <c r="Z21" s="156"/>
       <c r="AB21" s="86"/>
       <c r="AC21" s="86"/>
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="158"/>
-      <c r="B22" s="240"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="242"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="237"/>
       <c r="F22" s="86"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="204"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="213"/>
       <c r="K22" s="86"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="200"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="201"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
+      <c r="O22" s="225"/>
       <c r="P22" s="86"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="194"/>
-      <c r="S22" s="194"/>
-      <c r="T22" s="195"/>
+      <c r="Q22" s="238"/>
+      <c r="R22" s="239"/>
+      <c r="S22" s="239"/>
+      <c r="T22" s="240"/>
       <c r="U22" s="86"/>
-      <c r="V22" s="202"/>
-      <c r="W22" s="203"/>
-      <c r="X22" s="203"/>
-      <c r="Y22" s="204"/>
-      <c r="Z22" s="156"/>
+      <c r="V22" s="211"/>
+      <c r="W22" s="212"/>
+      <c r="X22" s="212"/>
+      <c r="Y22" s="213"/>
+      <c r="Z22" s="86"/>
       <c r="AB22" s="86"/>
       <c r="AC22" s="86"/>
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="158"/>
-      <c r="B23" s="190" t="s">
+      <c r="B23" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="192"/>
-      <c r="G23" s="190" t="s">
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="210"/>
+      <c r="G23" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="191"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="210"/>
       <c r="K23" s="86"/>
-      <c r="L23" s="190" t="s">
+      <c r="L23" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="192"/>
+      <c r="M23" s="209"/>
+      <c r="N23" s="209"/>
+      <c r="O23" s="210"/>
       <c r="P23" s="86"/>
-      <c r="Q23" s="190" t="s">
+      <c r="Q23" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191"/>
-      <c r="T23" s="192"/>
+      <c r="R23" s="209"/>
+      <c r="S23" s="209"/>
+      <c r="T23" s="210"/>
       <c r="U23" s="86"/>
-      <c r="V23" s="190" t="s">
+      <c r="V23" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="192"/>
-      <c r="Z23" s="156"/>
+      <c r="W23" s="209"/>
+      <c r="X23" s="209"/>
+      <c r="Y23" s="210"/>
+      <c r="Z23" s="86"/>
       <c r="AB23" s="86"/>
       <c r="AC23" s="86"/>
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="158"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="192"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="210"/>
       <c r="K24" s="86"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="191"/>
-      <c r="O24" s="192"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="210"/>
       <c r="P24" s="86"/>
-      <c r="Q24" s="190"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="192"/>
+      <c r="Q24" s="208"/>
+      <c r="R24" s="209"/>
+      <c r="S24" s="209"/>
+      <c r="T24" s="210"/>
       <c r="U24" s="86"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="192"/>
-      <c r="Z24" s="156"/>
+      <c r="V24" s="208"/>
+      <c r="W24" s="209"/>
+      <c r="X24" s="209"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="86"/>
       <c r="AB24" s="86"/>
       <c r="AC24" s="86"/>
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="158"/>
-      <c r="B25" s="199" t="e">
+      <c r="B25" s="223" t="e">
         <f>(FIXED(FIXED((Q10*(('Data Input'!G12/V5)/L5))+((Q10*(('Data Input'!G12/V5)/L5))*Q5))/Q10)-(FIXED(('Data Input'!G12/V5)/L5)))/FIXED(FIXED((Q10*(('Data Input'!G12/V5)/L5))+((Q10*(('Data Input'!G12/V5)/L5))*Q5))/Q10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="201"/>
-      <c r="G25" s="234" t="e">
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="225"/>
+      <c r="G25" s="229" t="e">
         <f>G15/'Data Input'!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="236"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="231"/>
       <c r="K25" s="86"/>
-      <c r="L25" s="199" t="e">
+      <c r="L25" s="223" t="e">
         <f>L15-L20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="200"/>
-      <c r="N25" s="200"/>
-      <c r="O25" s="201"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="225"/>
       <c r="P25" s="86"/>
-      <c r="Q25" s="202" t="e">
+      <c r="Q25" s="211" t="e">
         <f>'Data Input'!D14 &amp; FIXED(FIXED((Q10*(('Data Input'!G12/V5)/L5))+((Q10*(('Data Input'!G12/V5)/L5))*Q5))/Q10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="203"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="204"/>
+      <c r="R25" s="212"/>
+      <c r="S25" s="212"/>
+      <c r="T25" s="213"/>
       <c r="U25" s="86"/>
-      <c r="V25" s="202" t="e">
+      <c r="V25" s="211" t="e">
         <f>'Data Input'!D14 &amp; FIXED(('Data Input'!G12/V5)/L5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W25" s="203"/>
-      <c r="X25" s="203"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="156"/>
+      <c r="W25" s="212"/>
+      <c r="X25" s="212"/>
+      <c r="Y25" s="213"/>
+      <c r="Z25" s="86"/>
       <c r="AB25" s="86"/>
       <c r="AC25" s="86"/>
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="158"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="201"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="236"/>
+      <c r="B26" s="223"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="225"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="231"/>
       <c r="K26" s="86"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="200"/>
-      <c r="O26" s="201"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="225"/>
       <c r="P26" s="86"/>
-      <c r="Q26" s="202"/>
-      <c r="R26" s="203"/>
-      <c r="S26" s="203"/>
-      <c r="T26" s="204"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="212"/>
+      <c r="S26" s="212"/>
+      <c r="T26" s="213"/>
       <c r="U26" s="86"/>
-      <c r="V26" s="202"/>
-      <c r="W26" s="203"/>
-      <c r="X26" s="203"/>
-      <c r="Y26" s="204"/>
-      <c r="Z26" s="156"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="212"/>
+      <c r="X26" s="212"/>
+      <c r="Y26" s="213"/>
+      <c r="Z26" s="86"/>
       <c r="AB26" s="86"/>
       <c r="AC26" s="86"/>
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="158"/>
-      <c r="B27" s="228"/>
-      <c r="C27" s="229"/>
-      <c r="D27" s="229"/>
-      <c r="E27" s="230"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="228"/>
       <c r="F27" s="86"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="238"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="239"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="234"/>
       <c r="K27" s="86"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="229"/>
-      <c r="N27" s="229"/>
-      <c r="O27" s="230"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="227"/>
+      <c r="N27" s="227"/>
+      <c r="O27" s="228"/>
       <c r="P27" s="86"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="208"/>
-      <c r="S27" s="208"/>
-      <c r="T27" s="209"/>
+      <c r="Q27" s="246"/>
+      <c r="R27" s="247"/>
+      <c r="S27" s="247"/>
+      <c r="T27" s="248"/>
       <c r="U27" s="86"/>
-      <c r="V27" s="207"/>
-      <c r="W27" s="208"/>
-      <c r="X27" s="208"/>
-      <c r="Y27" s="209"/>
-      <c r="Z27" s="156"/>
+      <c r="V27" s="246"/>
+      <c r="W27" s="247"/>
+      <c r="X27" s="247"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="86"/>
       <c r="AB27" s="86"/>
       <c r="AC27" s="86"/>
     </row>
     <row r="28" spans="1:40" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A28" s="158"/>
-      <c r="B28" s="231" t="s">
+      <c r="B28" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="232"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="232"/>
-      <c r="F28" s="232"/>
-      <c r="G28" s="232"/>
-      <c r="H28" s="232"/>
-      <c r="I28" s="232"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="232"/>
-      <c r="L28" s="232"/>
-      <c r="M28" s="232"/>
-      <c r="N28" s="232"/>
-      <c r="O28" s="232"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="232"/>
-      <c r="U28" s="232"/>
-      <c r="V28" s="232"/>
-      <c r="W28" s="232"/>
-      <c r="X28" s="232"/>
-      <c r="Y28" s="233"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="210"/>
-      <c r="AB28" s="210"/>
-      <c r="AC28" s="210"/>
-      <c r="AD28" s="210"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="199"/>
+      <c r="N28" s="199"/>
+      <c r="O28" s="199"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="199"/>
+      <c r="S28" s="199"/>
+      <c r="T28" s="199"/>
+      <c r="U28" s="199"/>
+      <c r="V28" s="199"/>
+      <c r="W28" s="199"/>
+      <c r="X28" s="199"/>
+      <c r="Y28" s="200"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="249"/>
+      <c r="AB28" s="249"/>
+      <c r="AC28" s="249"/>
+      <c r="AD28" s="249"/>
       <c r="AE28" s="123"/>
       <c r="AJ28" s="124"/>
-      <c r="AK28" s="217"/>
-      <c r="AL28" s="217"/>
-      <c r="AM28" s="217"/>
-      <c r="AN28" s="217"/>
+      <c r="AK28" s="207"/>
+      <c r="AL28" s="207"/>
+      <c r="AM28" s="207"/>
+      <c r="AN28" s="207"/>
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="158"/>
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="224"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="216"/>
       <c r="F29" s="86"/>
-      <c r="G29" s="222" t="s">
+      <c r="G29" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="224"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="216"/>
       <c r="K29" s="86"/>
-      <c r="L29" s="222" t="s">
+      <c r="L29" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="223"/>
-      <c r="N29" s="223"/>
-      <c r="O29" s="224"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="216"/>
       <c r="P29" s="86"/>
-      <c r="Q29" s="222" t="s">
+      <c r="Q29" s="214" t="s">
         <v>71</v>
       </c>
-      <c r="R29" s="223"/>
-      <c r="S29" s="223"/>
-      <c r="T29" s="224"/>
+      <c r="R29" s="215"/>
+      <c r="S29" s="215"/>
+      <c r="T29" s="216"/>
       <c r="U29" s="86"/>
-      <c r="V29" s="222" t="s">
+      <c r="V29" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="W29" s="223"/>
-      <c r="X29" s="223"/>
-      <c r="Y29" s="224"/>
-      <c r="Z29" s="156"/>
-      <c r="AB29" s="86"/>
+      <c r="W29" s="215"/>
+      <c r="X29" s="215"/>
+      <c r="Y29" s="216"/>
+      <c r="Z29" s="86"/>
       <c r="AC29" s="86"/>
       <c r="AE29" s="123"/>
       <c r="AJ29" s="124"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="158"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="192"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="210"/>
       <c r="F30" s="86"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="192"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="210"/>
       <c r="K30" s="86"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="192"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="209"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="210"/>
       <c r="P30" s="86"/>
-      <c r="Q30" s="190"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="191"/>
-      <c r="T30" s="192"/>
+      <c r="Q30" s="208"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="209"/>
+      <c r="T30" s="210"/>
       <c r="U30" s="86"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="191"/>
-      <c r="X30" s="191"/>
-      <c r="Y30" s="192"/>
-      <c r="Z30" s="156"/>
+      <c r="V30" s="208"/>
+      <c r="W30" s="209"/>
+      <c r="X30" s="209"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="86"/>
       <c r="AB30" s="86"/>
       <c r="AC30" s="86"/>
       <c r="AE30" s="123"/>
@@ -14528,1370 +14535,1402 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="158"/>
-      <c r="B31" s="211" t="e">
+      <c r="B31" s="217" t="e">
         <f>((('Data Input'!G12/V5)/L5)*(52.7/100))/'Data Input'!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C31" s="212"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="213"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="219"/>
       <c r="F31" s="86"/>
-      <c r="G31" s="211" t="e">
+      <c r="G31" s="217" t="e">
         <f>'Data Input'!D14 &amp; FIXED((('Data Input'!G12/V5)/L5)*(52.7/100))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="213"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="219"/>
       <c r="K31" s="86"/>
-      <c r="L31" s="211" t="e">
+      <c r="L31" s="217" t="e">
         <f>'Data Input'!D14 &amp; FIXED((('Data Input'!G12/V5)/L5)*(47.3/100))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="212"/>
-      <c r="N31" s="212"/>
-      <c r="O31" s="213"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="219"/>
       <c r="P31" s="86"/>
-      <c r="Q31" s="211" t="e">
+      <c r="Q31" s="217" t="e">
         <f>('Data Input'!G11/'Data Input'!G10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="212"/>
-      <c r="S31" s="212"/>
-      <c r="T31" s="213"/>
+      <c r="R31" s="218"/>
+      <c r="S31" s="218"/>
+      <c r="T31" s="219"/>
       <c r="U31" s="86"/>
-      <c r="V31" s="199" t="e">
+      <c r="V31" s="223" t="e">
         <f>G25/'Data Input'!J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W31" s="200"/>
-      <c r="X31" s="200"/>
-      <c r="Y31" s="201"/>
-      <c r="Z31" s="156"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="225"/>
+      <c r="Z31" s="86"/>
       <c r="AB31" s="86"/>
       <c r="AC31" s="86"/>
       <c r="AJ31" s="124"/>
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="158"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="219"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="212"/>
-      <c r="J32" s="213"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="219"/>
       <c r="K32" s="86"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="212"/>
-      <c r="N32" s="212"/>
-      <c r="O32" s="213"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="219"/>
       <c r="P32" s="86"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="212"/>
-      <c r="S32" s="212"/>
-      <c r="T32" s="213"/>
+      <c r="Q32" s="217"/>
+      <c r="R32" s="218"/>
+      <c r="S32" s="218"/>
+      <c r="T32" s="219"/>
       <c r="U32" s="86"/>
-      <c r="V32" s="199"/>
-      <c r="W32" s="200"/>
-      <c r="X32" s="200"/>
-      <c r="Y32" s="201"/>
-      <c r="Z32" s="156"/>
+      <c r="V32" s="223"/>
+      <c r="W32" s="224"/>
+      <c r="X32" s="224"/>
+      <c r="Y32" s="225"/>
+      <c r="Z32" s="86"/>
       <c r="AB32" s="86"/>
       <c r="AC32" s="86"/>
       <c r="AJ32" s="124"/>
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="158"/>
-      <c r="B33" s="225"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="227"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="221"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="222"/>
       <c r="F33" s="151"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="226"/>
-      <c r="J33" s="227"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="221"/>
+      <c r="J33" s="222"/>
       <c r="K33" s="151"/>
-      <c r="L33" s="225"/>
-      <c r="M33" s="226"/>
-      <c r="N33" s="226"/>
-      <c r="O33" s="227"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="221"/>
+      <c r="O33" s="222"/>
       <c r="P33" s="151"/>
-      <c r="Q33" s="225"/>
-      <c r="R33" s="226"/>
-      <c r="S33" s="226"/>
-      <c r="T33" s="227"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="221"/>
+      <c r="S33" s="221"/>
+      <c r="T33" s="222"/>
       <c r="U33" s="151"/>
-      <c r="V33" s="228"/>
-      <c r="W33" s="229"/>
-      <c r="X33" s="229"/>
-      <c r="Y33" s="230"/>
-      <c r="Z33" s="156"/>
+      <c r="V33" s="226"/>
+      <c r="W33" s="227"/>
+      <c r="X33" s="227"/>
+      <c r="Y33" s="228"/>
+      <c r="Z33" s="86"/>
       <c r="AB33" s="86"/>
-      <c r="AC33" s="86"/>
+      <c r="AC33" s="259"/>
+      <c r="AD33" s="259"/>
+      <c r="AE33" s="259"/>
       <c r="AJ33" s="124"/>
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="158"/>
-      <c r="B34" s="231" t="s">
+      <c r="B34" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="232"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="232"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="232"/>
-      <c r="I34" s="232"/>
-      <c r="J34" s="232"/>
-      <c r="K34" s="232"/>
-      <c r="L34" s="232"/>
-      <c r="M34" s="233"/>
-      <c r="N34" s="231" t="s">
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="200"/>
+      <c r="N34" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="O34" s="232"/>
-      <c r="P34" s="232"/>
-      <c r="Q34" s="232"/>
-      <c r="R34" s="232"/>
-      <c r="S34" s="232"/>
-      <c r="T34" s="232"/>
-      <c r="U34" s="232"/>
-      <c r="V34" s="232"/>
-      <c r="W34" s="232"/>
-      <c r="X34" s="232"/>
-      <c r="Y34" s="233"/>
-      <c r="Z34" s="156"/>
+      <c r="O34" s="199"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="199"/>
+      <c r="R34" s="199"/>
+      <c r="S34" s="199"/>
+      <c r="T34" s="199"/>
+      <c r="U34" s="199"/>
+      <c r="V34" s="199"/>
+      <c r="W34" s="199"/>
+      <c r="X34" s="199"/>
+      <c r="Y34" s="200"/>
+      <c r="Z34" s="86"/>
       <c r="AB34" s="86"/>
-      <c r="AC34" s="86"/>
+      <c r="AC34" s="259"/>
+      <c r="AD34" s="259"/>
+      <c r="AE34" s="259"/>
       <c r="AJ34" s="124"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
-      <c r="B35" s="254"/>
-      <c r="C35" s="255"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="255"/>
-      <c r="F35" s="255"/>
-      <c r="G35" s="255"/>
-      <c r="H35" s="255"/>
-      <c r="I35" s="255"/>
-      <c r="J35" s="255"/>
-      <c r="K35" s="255"/>
-      <c r="L35" s="255"/>
-      <c r="M35" s="256"/>
-      <c r="N35" s="254"/>
-      <c r="O35" s="255"/>
-      <c r="P35" s="255"/>
-      <c r="Q35" s="255"/>
-      <c r="R35" s="255"/>
-      <c r="S35" s="255"/>
-      <c r="T35" s="255"/>
-      <c r="U35" s="255"/>
-      <c r="V35" s="255"/>
-      <c r="W35" s="255"/>
-      <c r="X35" s="255"/>
-      <c r="Y35" s="256"/>
-      <c r="Z35" s="156"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="202"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="202"/>
+      <c r="K35" s="202"/>
+      <c r="L35" s="202"/>
+      <c r="M35" s="203"/>
+      <c r="N35" s="201"/>
+      <c r="O35" s="202"/>
+      <c r="P35" s="202"/>
+      <c r="Q35" s="202"/>
+      <c r="R35" s="202"/>
+      <c r="S35" s="202"/>
+      <c r="T35" s="202"/>
+      <c r="U35" s="202"/>
+      <c r="V35" s="202"/>
+      <c r="W35" s="202"/>
+      <c r="X35" s="202"/>
+      <c r="Y35" s="203"/>
+      <c r="Z35" s="86"/>
       <c r="AB35" s="86"/>
       <c r="AC35" s="86"/>
       <c r="AJ35" s="124"/>
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="158"/>
-      <c r="B36" s="254"/>
-      <c r="C36" s="255"/>
-      <c r="D36" s="255"/>
-      <c r="E36" s="255"/>
-      <c r="F36" s="255"/>
-      <c r="G36" s="255"/>
-      <c r="H36" s="255"/>
-      <c r="I36" s="255"/>
-      <c r="J36" s="255"/>
-      <c r="K36" s="255"/>
-      <c r="L36" s="255"/>
-      <c r="M36" s="256"/>
-      <c r="N36" s="254"/>
-      <c r="O36" s="255"/>
-      <c r="P36" s="255"/>
-      <c r="Q36" s="255"/>
-      <c r="R36" s="255"/>
-      <c r="S36" s="255"/>
-      <c r="T36" s="255"/>
-      <c r="U36" s="255"/>
-      <c r="V36" s="255"/>
-      <c r="W36" s="255"/>
-      <c r="X36" s="255"/>
-      <c r="Y36" s="256"/>
-      <c r="Z36" s="156"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="202"/>
+      <c r="L36" s="202"/>
+      <c r="M36" s="203"/>
+      <c r="N36" s="201"/>
+      <c r="O36" s="202"/>
+      <c r="P36" s="202"/>
+      <c r="Q36" s="202"/>
+      <c r="R36" s="202"/>
+      <c r="S36" s="202"/>
+      <c r="T36" s="202"/>
+      <c r="U36" s="202"/>
+      <c r="V36" s="202"/>
+      <c r="W36" s="202"/>
+      <c r="X36" s="202"/>
+      <c r="Y36" s="203"/>
+      <c r="Z36" s="86"/>
       <c r="AB36" s="86"/>
       <c r="AC36" s="86"/>
       <c r="AJ36" s="124"/>
     </row>
     <row r="37" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="158"/>
-      <c r="B37" s="220" t="s">
+      <c r="B37" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="221"/>
-      <c r="D37" s="221" t="s">
+      <c r="C37" s="205"/>
+      <c r="D37" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="221"/>
+      <c r="E37" s="205"/>
       <c r="F37" s="154"/>
-      <c r="G37" s="221" t="s">
+      <c r="G37" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="221"/>
-      <c r="I37" s="221"/>
-      <c r="J37" s="221" t="s">
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="K37" s="221"/>
-      <c r="L37" s="221"/>
-      <c r="M37" s="243"/>
-      <c r="N37" s="220" t="s">
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="221"/>
-      <c r="P37" s="221" t="s">
+      <c r="O37" s="205"/>
+      <c r="P37" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="221"/>
+      <c r="Q37" s="205"/>
       <c r="R37" s="154"/>
-      <c r="S37" s="221" t="s">
+      <c r="S37" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="T37" s="221"/>
-      <c r="U37" s="221"/>
-      <c r="V37" s="221" t="s">
+      <c r="T37" s="205"/>
+      <c r="U37" s="205"/>
+      <c r="V37" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="W37" s="221"/>
-      <c r="X37" s="221"/>
-      <c r="Y37" s="243"/>
-      <c r="Z37" s="156"/>
+      <c r="W37" s="205"/>
+      <c r="X37" s="205"/>
+      <c r="Y37" s="206"/>
+      <c r="Z37" s="86"/>
       <c r="AB37" s="86"/>
       <c r="AC37" s="86"/>
       <c r="AJ37" s="124"/>
     </row>
     <row r="38" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="221"/>
-      <c r="D38" s="221"/>
-      <c r="E38" s="221"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
       <c r="F38" s="154"/>
-      <c r="G38" s="221"/>
-      <c r="H38" s="221"/>
-      <c r="I38" s="221"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="221"/>
-      <c r="M38" s="243"/>
-      <c r="N38" s="220"/>
-      <c r="O38" s="221"/>
-      <c r="P38" s="221"/>
-      <c r="Q38" s="221"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="206"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="205"/>
+      <c r="P38" s="205"/>
+      <c r="Q38" s="205"/>
       <c r="R38" s="154"/>
-      <c r="S38" s="221"/>
-      <c r="T38" s="221"/>
-      <c r="U38" s="221"/>
-      <c r="V38" s="221"/>
-      <c r="W38" s="221"/>
-      <c r="X38" s="221"/>
-      <c r="Y38" s="243"/>
-      <c r="Z38" s="156"/>
+      <c r="S38" s="205"/>
+      <c r="T38" s="205"/>
+      <c r="U38" s="205"/>
+      <c r="V38" s="205"/>
+      <c r="W38" s="205"/>
+      <c r="X38" s="205"/>
+      <c r="Y38" s="206"/>
+      <c r="Z38" s="86"/>
       <c r="AB38" s="86"/>
       <c r="AC38" s="86"/>
       <c r="AJ38" s="124"/>
     </row>
     <row r="39" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="158"/>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="206"/>
-      <c r="D39" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/52)))</f>
-        <v>0.00</v>
+      <c r="C39" s="189"/>
+      <c r="D39" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((1/52) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E39" s="246"/>
-      <c r="F39" s="246"/>
-      <c r="G39" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/52))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="244"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D39*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D39)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="244"/>
-      <c r="L39" s="244"/>
-      <c r="M39" s="245"/>
-      <c r="N39" s="205" t="s">
+      <c r="K39" s="194"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="206"/>
-      <c r="P39" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/52)))</f>
-        <v>0.00</v>
+      <c r="O39" s="189"/>
+      <c r="P39" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((1/52) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q39" s="246"/>
-      <c r="R39" s="246"/>
-      <c r="S39" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/52))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q39" s="192"/>
+      <c r="R39" s="192"/>
+      <c r="S39" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="244"/>
-      <c r="U39" s="244"/>
-      <c r="V39" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P39*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T39" s="192"/>
+      <c r="U39" s="192"/>
+      <c r="V39" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P39)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W39" s="244"/>
-      <c r="X39" s="244"/>
-      <c r="Y39" s="245"/>
-      <c r="Z39" s="156"/>
+      <c r="W39" s="194"/>
+      <c r="X39" s="194"/>
+      <c r="Y39" s="195"/>
+      <c r="Z39" s="86"/>
       <c r="AB39" s="86"/>
-      <c r="AC39" s="86"/>
+      <c r="AC39" s="259"/>
+      <c r="AD39" s="259"/>
+      <c r="AE39" s="259"/>
       <c r="AJ39" s="124"/>
     </row>
     <row r="40" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="158"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="206"/>
-      <c r="D40" s="246"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="246"/>
-      <c r="G40" s="244"/>
-      <c r="H40" s="244"/>
-      <c r="I40" s="244"/>
-      <c r="J40" s="244"/>
-      <c r="K40" s="244"/>
-      <c r="L40" s="244"/>
-      <c r="M40" s="245"/>
-      <c r="N40" s="205"/>
-      <c r="O40" s="206"/>
-      <c r="P40" s="246"/>
-      <c r="Q40" s="246"/>
-      <c r="R40" s="246"/>
-      <c r="S40" s="244"/>
-      <c r="T40" s="244"/>
-      <c r="U40" s="244"/>
-      <c r="V40" s="244"/>
-      <c r="W40" s="244"/>
-      <c r="X40" s="244"/>
-      <c r="Y40" s="245"/>
-      <c r="Z40" s="156"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="194"/>
+      <c r="L40" s="194"/>
+      <c r="M40" s="195"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="189"/>
+      <c r="P40" s="192"/>
+      <c r="Q40" s="192"/>
+      <c r="R40" s="192"/>
+      <c r="S40" s="192"/>
+      <c r="T40" s="192"/>
+      <c r="U40" s="192"/>
+      <c r="V40" s="194"/>
+      <c r="W40" s="194"/>
+      <c r="X40" s="194"/>
+      <c r="Y40" s="195"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="256"/>
       <c r="AB40" s="86"/>
-      <c r="AC40" s="86"/>
+      <c r="AC40" s="259"/>
+      <c r="AD40" s="259"/>
+      <c r="AE40" s="259"/>
       <c r="AJ40" s="124"/>
     </row>
     <row r="41" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="158"/>
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="206"/>
-      <c r="D41" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12)))</f>
-        <v>0.00</v>
+      <c r="C41" s="189"/>
+      <c r="D41" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((1/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="247"/>
-      <c r="I41" s="247"/>
-      <c r="J41" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D41*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D41)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="244"/>
-      <c r="L41" s="244"/>
-      <c r="M41" s="245"/>
-      <c r="N41" s="205" t="s">
+      <c r="K41" s="194"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="O41" s="206"/>
-      <c r="P41" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12)))</f>
-        <v>0.00</v>
+      <c r="O41" s="189"/>
+      <c r="P41" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((1/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q41" s="246"/>
-      <c r="R41" s="246"/>
-      <c r="S41" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q41" s="192"/>
+      <c r="R41" s="192"/>
+      <c r="S41" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="247"/>
-      <c r="U41" s="247"/>
-      <c r="V41" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P41*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T41" s="192"/>
+      <c r="U41" s="192"/>
+      <c r="V41" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P41)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W41" s="244"/>
-      <c r="X41" s="244"/>
-      <c r="Y41" s="245"/>
-      <c r="Z41" s="156"/>
+      <c r="W41" s="194"/>
+      <c r="X41" s="194"/>
+      <c r="Y41" s="195"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="256"/>
       <c r="AB41" s="86"/>
-      <c r="AC41" s="86"/>
+      <c r="AC41" s="259"/>
+      <c r="AD41" s="259"/>
+      <c r="AE41" s="259"/>
       <c r="AJ41" s="124"/>
     </row>
     <row r="42" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="170"/>
-      <c r="B42" s="205"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="246"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="246"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="247"/>
-      <c r="J42" s="244"/>
-      <c r="K42" s="244"/>
-      <c r="L42" s="244"/>
-      <c r="M42" s="245"/>
-      <c r="N42" s="205"/>
-      <c r="O42" s="206"/>
-      <c r="P42" s="246"/>
-      <c r="Q42" s="246"/>
-      <c r="R42" s="246"/>
-      <c r="S42" s="247"/>
-      <c r="T42" s="247"/>
-      <c r="U42" s="247"/>
-      <c r="V42" s="244"/>
-      <c r="W42" s="244"/>
-      <c r="X42" s="244"/>
-      <c r="Y42" s="245"/>
-      <c r="Z42" s="156"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="194"/>
+      <c r="K42" s="194"/>
+      <c r="L42" s="194"/>
+      <c r="M42" s="195"/>
+      <c r="N42" s="188"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="192"/>
+      <c r="Q42" s="192"/>
+      <c r="R42" s="192"/>
+      <c r="S42" s="192"/>
+      <c r="T42" s="192"/>
+      <c r="U42" s="192"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="194"/>
+      <c r="X42" s="194"/>
+      <c r="Y42" s="195"/>
+      <c r="Z42" s="86"/>
+      <c r="AA42" s="256"/>
       <c r="AB42" s="86"/>
-      <c r="AC42" s="86"/>
+      <c r="AC42" s="259"/>
+      <c r="AD42" s="259"/>
+      <c r="AE42" s="259"/>
       <c r="AJ42" s="124"/>
     </row>
     <row r="43" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="171"/>
-      <c r="B43" s="205" t="s">
+      <c r="B43" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="206"/>
-      <c r="D43" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*2)))</f>
-        <v>0.00</v>
+      <c r="C43" s="189"/>
+      <c r="D43" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((2/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E43" s="246"/>
-      <c r="F43" s="246"/>
-      <c r="G43" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*2))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E43" s="192"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="247"/>
-      <c r="I43" s="247"/>
-      <c r="J43" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D43*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H43" s="192"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D43)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="244"/>
-      <c r="L43" s="244"/>
-      <c r="M43" s="245"/>
-      <c r="N43" s="205" t="s">
+      <c r="K43" s="194"/>
+      <c r="L43" s="194"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="206"/>
-      <c r="P43" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*2)))</f>
-        <v>0.00</v>
+      <c r="O43" s="189"/>
+      <c r="P43" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((2/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q43" s="246"/>
-      <c r="R43" s="246"/>
-      <c r="S43" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*2))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q43" s="192"/>
+      <c r="R43" s="192"/>
+      <c r="S43" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="247"/>
-      <c r="U43" s="247"/>
-      <c r="V43" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P43*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T43" s="192"/>
+      <c r="U43" s="192"/>
+      <c r="V43" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P43)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W43" s="244"/>
-      <c r="X43" s="244"/>
-      <c r="Y43" s="245"/>
-      <c r="Z43" s="156"/>
+      <c r="W43" s="194"/>
+      <c r="X43" s="194"/>
+      <c r="Y43" s="195"/>
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="256"/>
       <c r="AB43" s="86"/>
-      <c r="AC43" s="86"/>
+      <c r="AC43" s="259"/>
+      <c r="AD43" s="259"/>
+      <c r="AE43" s="259"/>
     </row>
     <row r="44" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="171"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="206"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="244"/>
-      <c r="K44" s="244"/>
-      <c r="L44" s="244"/>
-      <c r="M44" s="245"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="206"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="247"/>
-      <c r="T44" s="247"/>
-      <c r="U44" s="247"/>
-      <c r="V44" s="244"/>
-      <c r="W44" s="244"/>
-      <c r="X44" s="244"/>
-      <c r="Y44" s="245"/>
-      <c r="Z44" s="156"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="194"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="188"/>
+      <c r="O44" s="189"/>
+      <c r="P44" s="192"/>
+      <c r="Q44" s="192"/>
+      <c r="R44" s="192"/>
+      <c r="S44" s="192"/>
+      <c r="T44" s="192"/>
+      <c r="U44" s="192"/>
+      <c r="V44" s="194"/>
+      <c r="W44" s="194"/>
+      <c r="X44" s="194"/>
+      <c r="Y44" s="195"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="256"/>
       <c r="AB44" s="86"/>
-      <c r="AC44" s="86"/>
+      <c r="AC44" s="259"/>
+      <c r="AD44" s="259"/>
+      <c r="AE44" s="259"/>
     </row>
     <row r="45" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="171"/>
-      <c r="B45" s="205" t="s">
+      <c r="B45" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="206"/>
-      <c r="D45" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*3)))</f>
-        <v>0.00</v>
+      <c r="C45" s="189"/>
+      <c r="D45" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((3/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E45" s="246"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*3))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="247"/>
-      <c r="I45" s="247"/>
-      <c r="J45" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D45*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H45" s="192"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D45)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="244"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="245"/>
-      <c r="N45" s="205" t="s">
+      <c r="K45" s="194"/>
+      <c r="L45" s="194"/>
+      <c r="M45" s="195"/>
+      <c r="N45" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="O45" s="206"/>
-      <c r="P45" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*3)))</f>
-        <v>0.00</v>
+      <c r="O45" s="189"/>
+      <c r="P45" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((3/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q45" s="246"/>
-      <c r="R45" s="246"/>
-      <c r="S45" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*3))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q45" s="192"/>
+      <c r="R45" s="192"/>
+      <c r="S45" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="247"/>
-      <c r="U45" s="247"/>
-      <c r="V45" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P45*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T45" s="192"/>
+      <c r="U45" s="192"/>
+      <c r="V45" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P45)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W45" s="244"/>
-      <c r="X45" s="244"/>
-      <c r="Y45" s="245"/>
-      <c r="Z45" s="156"/>
+      <c r="W45" s="194"/>
+      <c r="X45" s="194"/>
+      <c r="Y45" s="195"/>
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="256"/>
       <c r="AB45" s="86"/>
-      <c r="AC45" s="86"/>
+      <c r="AC45" s="259"/>
+      <c r="AD45" s="259"/>
+      <c r="AE45" s="259"/>
     </row>
     <row r="46" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="172"/>
-      <c r="B46" s="205"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
-      <c r="F46" s="246"/>
-      <c r="G46" s="247"/>
-      <c r="H46" s="247"/>
-      <c r="I46" s="247"/>
-      <c r="J46" s="244"/>
-      <c r="K46" s="244"/>
-      <c r="L46" s="244"/>
-      <c r="M46" s="245"/>
-      <c r="N46" s="205"/>
-      <c r="O46" s="206"/>
-      <c r="P46" s="246"/>
-      <c r="Q46" s="246"/>
-      <c r="R46" s="246"/>
-      <c r="S46" s="247"/>
-      <c r="T46" s="247"/>
-      <c r="U46" s="247"/>
-      <c r="V46" s="244"/>
-      <c r="W46" s="244"/>
-      <c r="X46" s="244"/>
-      <c r="Y46" s="245"/>
-      <c r="Z46" s="156"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="189"/>
+      <c r="P46" s="192"/>
+      <c r="Q46" s="192"/>
+      <c r="R46" s="192"/>
+      <c r="S46" s="192"/>
+      <c r="T46" s="192"/>
+      <c r="U46" s="192"/>
+      <c r="V46" s="194"/>
+      <c r="W46" s="194"/>
+      <c r="X46" s="194"/>
+      <c r="Y46" s="195"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="256"/>
       <c r="AB46" s="86"/>
-      <c r="AC46" s="86"/>
+      <c r="AC46" s="259"/>
+      <c r="AD46" s="259"/>
+      <c r="AE46" s="259"/>
     </row>
     <row r="47" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="172"/>
-      <c r="B47" s="205" t="s">
+      <c r="B47" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="206"/>
-      <c r="D47" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*4)))</f>
-        <v>0.00</v>
+      <c r="C47" s="189"/>
+      <c r="D47" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((4/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E47" s="246"/>
-      <c r="F47" s="246"/>
-      <c r="G47" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*4))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E47" s="192"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="247"/>
-      <c r="I47" s="247"/>
-      <c r="J47" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D47*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D47)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="244"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="245"/>
-      <c r="N47" s="205" t="s">
+      <c r="K47" s="194"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="195"/>
+      <c r="N47" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="O47" s="206"/>
-      <c r="P47" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*4)))</f>
-        <v>0.00</v>
+      <c r="O47" s="189"/>
+      <c r="P47" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((4/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q47" s="246"/>
-      <c r="R47" s="246"/>
-      <c r="S47" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*4))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="192"/>
+      <c r="S47" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T47" s="247"/>
-      <c r="U47" s="247"/>
-      <c r="V47" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P47*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T47" s="192"/>
+      <c r="U47" s="192"/>
+      <c r="V47" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P47)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W47" s="244"/>
-      <c r="X47" s="244"/>
-      <c r="Y47" s="245"/>
-      <c r="Z47" s="157"/>
+      <c r="W47" s="194"/>
+      <c r="X47" s="194"/>
+      <c r="Y47" s="195"/>
+      <c r="AA47" s="256"/>
       <c r="AB47" s="86"/>
-      <c r="AC47" s="86"/>
+      <c r="AC47" s="259"/>
+      <c r="AD47" s="259"/>
+      <c r="AE47" s="259"/>
     </row>
     <row r="48" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="172"/>
-      <c r="B48" s="205"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="246"/>
-      <c r="E48" s="246"/>
-      <c r="F48" s="246"/>
-      <c r="G48" s="247"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="247"/>
-      <c r="J48" s="244"/>
-      <c r="K48" s="244"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="245"/>
-      <c r="N48" s="205"/>
-      <c r="O48" s="206"/>
-      <c r="P48" s="246"/>
-      <c r="Q48" s="246"/>
-      <c r="R48" s="246"/>
-      <c r="S48" s="247"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="247"/>
-      <c r="V48" s="244"/>
-      <c r="W48" s="244"/>
-      <c r="X48" s="244"/>
-      <c r="Y48" s="245"/>
-      <c r="Z48" s="157"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="189"/>
+      <c r="D48" s="192"/>
+      <c r="E48" s="192"/>
+      <c r="F48" s="192"/>
+      <c r="G48" s="192"/>
+      <c r="H48" s="192"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="194"/>
+      <c r="L48" s="194"/>
+      <c r="M48" s="195"/>
+      <c r="N48" s="188"/>
+      <c r="O48" s="189"/>
+      <c r="P48" s="192"/>
+      <c r="Q48" s="192"/>
+      <c r="R48" s="192"/>
+      <c r="S48" s="192"/>
+      <c r="T48" s="192"/>
+      <c r="U48" s="192"/>
+      <c r="V48" s="194"/>
+      <c r="W48" s="194"/>
+      <c r="X48" s="194"/>
+      <c r="Y48" s="195"/>
       <c r="AB48" s="86"/>
-      <c r="AC48" s="86"/>
-      <c r="AE48" s="123"/>
+      <c r="AC48" s="259"/>
+      <c r="AD48" s="259"/>
+      <c r="AE48" s="259"/>
     </row>
     <row r="49" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="158"/>
-      <c r="B49" s="205" t="s">
+      <c r="B49" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="206"/>
-      <c r="D49" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*5)))</f>
-        <v>0.00</v>
+      <c r="C49" s="189"/>
+      <c r="D49" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((5/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E49" s="246"/>
-      <c r="F49" s="246"/>
-      <c r="G49" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*5))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E49" s="192"/>
+      <c r="F49" s="192"/>
+      <c r="G49" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="247"/>
-      <c r="I49" s="247"/>
-      <c r="J49" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D49*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H49" s="192"/>
+      <c r="I49" s="192"/>
+      <c r="J49" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D49)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="244"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="245"/>
-      <c r="N49" s="205" t="s">
+      <c r="K49" s="194"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="195"/>
+      <c r="N49" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="O49" s="206"/>
-      <c r="P49" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*5)))</f>
-        <v>0.00</v>
+      <c r="O49" s="189"/>
+      <c r="P49" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((5/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q49" s="246"/>
-      <c r="R49" s="246"/>
-      <c r="S49" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*5))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q49" s="192"/>
+      <c r="R49" s="192"/>
+      <c r="S49" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="247"/>
-      <c r="U49" s="247"/>
-      <c r="V49" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P49*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T49" s="192"/>
+      <c r="U49" s="192"/>
+      <c r="V49" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P49)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W49" s="244"/>
-      <c r="X49" s="244"/>
-      <c r="Y49" s="245"/>
-      <c r="Z49" s="157"/>
+      <c r="W49" s="194"/>
+      <c r="X49" s="194"/>
+      <c r="Y49" s="195"/>
       <c r="AB49" s="86"/>
-      <c r="AC49" s="86"/>
-      <c r="AE49" s="123"/>
+      <c r="AC49" s="259"/>
+      <c r="AD49" s="259"/>
+      <c r="AE49" s="259"/>
     </row>
     <row r="50" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="158"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="246"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="246"/>
-      <c r="G50" s="247"/>
-      <c r="H50" s="247"/>
-      <c r="I50" s="247"/>
-      <c r="J50" s="244"/>
-      <c r="K50" s="244"/>
-      <c r="L50" s="244"/>
-      <c r="M50" s="245"/>
-      <c r="N50" s="205"/>
-      <c r="O50" s="206"/>
-      <c r="P50" s="246"/>
-      <c r="Q50" s="246"/>
-      <c r="R50" s="246"/>
-      <c r="S50" s="247"/>
-      <c r="T50" s="247"/>
-      <c r="U50" s="247"/>
-      <c r="V50" s="244"/>
-      <c r="W50" s="244"/>
-      <c r="X50" s="244"/>
-      <c r="Y50" s="245"/>
-      <c r="Z50" s="157"/>
+      <c r="B50" s="188"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="192"/>
+      <c r="E50" s="192"/>
+      <c r="F50" s="192"/>
+      <c r="G50" s="192"/>
+      <c r="H50" s="192"/>
+      <c r="I50" s="192"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="194"/>
+      <c r="L50" s="194"/>
+      <c r="M50" s="195"/>
+      <c r="N50" s="188"/>
+      <c r="O50" s="189"/>
+      <c r="P50" s="192"/>
+      <c r="Q50" s="192"/>
+      <c r="R50" s="192"/>
+      <c r="S50" s="192"/>
+      <c r="T50" s="192"/>
+      <c r="U50" s="192"/>
+      <c r="V50" s="194"/>
+      <c r="W50" s="194"/>
+      <c r="X50" s="194"/>
+      <c r="Y50" s="195"/>
       <c r="AB50" s="86"/>
-      <c r="AC50" s="86"/>
+      <c r="AC50" s="259"/>
+      <c r="AD50" s="259"/>
+      <c r="AE50" s="259"/>
     </row>
     <row r="51" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="158"/>
-      <c r="B51" s="205" t="s">
+      <c r="B51" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="206"/>
-      <c r="D51" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*6)))</f>
-        <v>0.00</v>
+      <c r="C51" s="189"/>
+      <c r="D51" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((6/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E51" s="246"/>
-      <c r="F51" s="246"/>
-      <c r="G51" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*6))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E51" s="192"/>
+      <c r="F51" s="192"/>
+      <c r="G51" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="247"/>
-      <c r="I51" s="247"/>
-      <c r="J51" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D51*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H51" s="192"/>
+      <c r="I51" s="192"/>
+      <c r="J51" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D51)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="244"/>
-      <c r="L51" s="244"/>
-      <c r="M51" s="245"/>
-      <c r="N51" s="205" t="s">
+      <c r="K51" s="194"/>
+      <c r="L51" s="194"/>
+      <c r="M51" s="195"/>
+      <c r="N51" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="O51" s="206"/>
-      <c r="P51" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*6)))</f>
-        <v>0.00</v>
+      <c r="O51" s="189"/>
+      <c r="P51" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((6/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q51" s="246"/>
-      <c r="R51" s="246"/>
-      <c r="S51" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*6))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q51" s="192"/>
+      <c r="R51" s="192"/>
+      <c r="S51" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="247"/>
-      <c r="U51" s="247"/>
-      <c r="V51" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P51*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T51" s="192"/>
+      <c r="U51" s="192"/>
+      <c r="V51" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P51)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W51" s="244"/>
-      <c r="X51" s="244"/>
-      <c r="Y51" s="245"/>
-      <c r="Z51" s="157"/>
+      <c r="W51" s="194"/>
+      <c r="X51" s="194"/>
+      <c r="Y51" s="195"/>
       <c r="AB51" s="86"/>
-      <c r="AC51" s="86"/>
+      <c r="AC51" s="259"/>
+      <c r="AD51" s="259"/>
+      <c r="AE51" s="259"/>
     </row>
     <row r="52" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="158"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="206"/>
-      <c r="D52" s="246"/>
-      <c r="E52" s="246"/>
-      <c r="F52" s="246"/>
-      <c r="G52" s="247"/>
-      <c r="H52" s="247"/>
-      <c r="I52" s="247"/>
-      <c r="J52" s="244"/>
-      <c r="K52" s="244"/>
-      <c r="L52" s="244"/>
-      <c r="M52" s="245"/>
-      <c r="N52" s="205"/>
-      <c r="O52" s="206"/>
-      <c r="P52" s="246"/>
-      <c r="Q52" s="246"/>
-      <c r="R52" s="246"/>
-      <c r="S52" s="247"/>
-      <c r="T52" s="247"/>
-      <c r="U52" s="247"/>
-      <c r="V52" s="244"/>
-      <c r="W52" s="244"/>
-      <c r="X52" s="244"/>
-      <c r="Y52" s="245"/>
-      <c r="Z52" s="157"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="192"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="195"/>
+      <c r="N52" s="188"/>
+      <c r="O52" s="189"/>
+      <c r="P52" s="192"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="192"/>
+      <c r="S52" s="192"/>
+      <c r="T52" s="192"/>
+      <c r="U52" s="192"/>
+      <c r="V52" s="194"/>
+      <c r="W52" s="194"/>
+      <c r="X52" s="194"/>
+      <c r="Y52" s="195"/>
       <c r="AB52" s="86"/>
-      <c r="AC52" s="86"/>
+      <c r="AC52" s="259"/>
+      <c r="AD52" s="259"/>
+      <c r="AE52" s="259"/>
     </row>
     <row r="53" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="158"/>
-      <c r="B53" s="205" t="s">
+      <c r="B53" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="206"/>
-      <c r="D53" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*7)))</f>
-        <v>0.00</v>
+      <c r="C53" s="189"/>
+      <c r="D53" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((7/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E53" s="246"/>
-      <c r="F53" s="246"/>
-      <c r="G53" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*7))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E53" s="192"/>
+      <c r="F53" s="192"/>
+      <c r="G53" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="247"/>
-      <c r="I53" s="247"/>
-      <c r="J53" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D53*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H53" s="192"/>
+      <c r="I53" s="192"/>
+      <c r="J53" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D53)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K53" s="244"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="245"/>
-      <c r="N53" s="205" t="s">
+      <c r="K53" s="194"/>
+      <c r="L53" s="194"/>
+      <c r="M53" s="195"/>
+      <c r="N53" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="O53" s="206"/>
-      <c r="P53" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*7)))</f>
-        <v>0.00</v>
+      <c r="O53" s="189"/>
+      <c r="P53" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((7/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q53" s="246"/>
-      <c r="R53" s="246"/>
-      <c r="S53" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*7))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="192"/>
+      <c r="S53" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T53" s="247"/>
-      <c r="U53" s="247"/>
-      <c r="V53" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P53*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T53" s="192"/>
+      <c r="U53" s="192"/>
+      <c r="V53" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P53)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W53" s="244"/>
-      <c r="X53" s="244"/>
-      <c r="Y53" s="245"/>
-      <c r="Z53" s="157"/>
+      <c r="W53" s="194"/>
+      <c r="X53" s="194"/>
+      <c r="Y53" s="195"/>
       <c r="AA53" s="124"/>
-      <c r="AC53" s="125"/>
-      <c r="AD53" s="126"/>
+      <c r="AC53" s="259"/>
+      <c r="AD53" s="259"/>
+      <c r="AE53" s="259"/>
     </row>
     <row r="54" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="158"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="246"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="247"/>
-      <c r="H54" s="247"/>
-      <c r="I54" s="247"/>
-      <c r="J54" s="244"/>
-      <c r="K54" s="244"/>
-      <c r="L54" s="244"/>
-      <c r="M54" s="245"/>
-      <c r="N54" s="205"/>
-      <c r="O54" s="206"/>
-      <c r="P54" s="246"/>
-      <c r="Q54" s="246"/>
-      <c r="R54" s="246"/>
-      <c r="S54" s="247"/>
-      <c r="T54" s="247"/>
-      <c r="U54" s="247"/>
-      <c r="V54" s="244"/>
-      <c r="W54" s="244"/>
-      <c r="X54" s="244"/>
-      <c r="Y54" s="245"/>
-      <c r="Z54" s="157"/>
+      <c r="B54" s="188"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="192"/>
+      <c r="I54" s="192"/>
+      <c r="J54" s="194"/>
+      <c r="K54" s="194"/>
+      <c r="L54" s="194"/>
+      <c r="M54" s="195"/>
+      <c r="N54" s="188"/>
+      <c r="O54" s="189"/>
+      <c r="P54" s="192"/>
+      <c r="Q54" s="192"/>
+      <c r="R54" s="192"/>
+      <c r="S54" s="192"/>
+      <c r="T54" s="192"/>
+      <c r="U54" s="192"/>
+      <c r="V54" s="194"/>
+      <c r="W54" s="194"/>
+      <c r="X54" s="194"/>
+      <c r="Y54" s="195"/>
       <c r="AA54" s="124"/>
-      <c r="AC54" s="125"/>
-      <c r="AD54" s="126"/>
+      <c r="AC54" s="259"/>
+      <c r="AD54" s="259"/>
+      <c r="AE54" s="259"/>
     </row>
     <row r="55" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="158"/>
-      <c r="B55" s="205" t="s">
+      <c r="B55" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="206"/>
-      <c r="D55" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*8)))</f>
-        <v>0.00</v>
+      <c r="C55" s="189"/>
+      <c r="D55" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((8/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E55" s="246"/>
-      <c r="F55" s="246"/>
-      <c r="G55" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*8))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E55" s="192"/>
+      <c r="F55" s="192"/>
+      <c r="G55" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="247"/>
-      <c r="I55" s="247"/>
-      <c r="J55" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D55*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H55" s="192"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D55)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K55" s="244"/>
-      <c r="L55" s="244"/>
-      <c r="M55" s="245"/>
-      <c r="N55" s="205" t="s">
+      <c r="K55" s="194"/>
+      <c r="L55" s="194"/>
+      <c r="M55" s="195"/>
+      <c r="N55" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="O55" s="206"/>
-      <c r="P55" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*8)))</f>
-        <v>0.00</v>
+      <c r="O55" s="189"/>
+      <c r="P55" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((8/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q55" s="246"/>
-      <c r="R55" s="246"/>
-      <c r="S55" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*8))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q55" s="192"/>
+      <c r="R55" s="192"/>
+      <c r="S55" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T55" s="247"/>
-      <c r="U55" s="247"/>
-      <c r="V55" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P55*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T55" s="192"/>
+      <c r="U55" s="192"/>
+      <c r="V55" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P55)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W55" s="244"/>
-      <c r="X55" s="244"/>
-      <c r="Y55" s="245"/>
-      <c r="Z55" s="157"/>
+      <c r="W55" s="194"/>
+      <c r="X55" s="194"/>
+      <c r="Y55" s="195"/>
       <c r="AA55" s="124"/>
-      <c r="AC55" s="125"/>
-      <c r="AD55" s="126"/>
+      <c r="AC55" s="259"/>
+      <c r="AD55" s="259"/>
+      <c r="AE55" s="259"/>
     </row>
     <row r="56" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="158"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="206"/>
-      <c r="D56" s="246"/>
-      <c r="E56" s="246"/>
-      <c r="F56" s="246"/>
-      <c r="G56" s="247"/>
-      <c r="H56" s="247"/>
-      <c r="I56" s="247"/>
-      <c r="J56" s="244"/>
-      <c r="K56" s="244"/>
-      <c r="L56" s="244"/>
-      <c r="M56" s="245"/>
-      <c r="N56" s="205"/>
-      <c r="O56" s="206"/>
-      <c r="P56" s="246"/>
-      <c r="Q56" s="246"/>
-      <c r="R56" s="246"/>
-      <c r="S56" s="247"/>
-      <c r="T56" s="247"/>
-      <c r="U56" s="247"/>
-      <c r="V56" s="244"/>
-      <c r="W56" s="244"/>
-      <c r="X56" s="244"/>
-      <c r="Y56" s="245"/>
-      <c r="Z56" s="157"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="189"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="192"/>
+      <c r="F56" s="192"/>
+      <c r="G56" s="192"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="194"/>
+      <c r="L56" s="194"/>
+      <c r="M56" s="195"/>
+      <c r="N56" s="188"/>
+      <c r="O56" s="189"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="192"/>
+      <c r="S56" s="192"/>
+      <c r="T56" s="192"/>
+      <c r="U56" s="192"/>
+      <c r="V56" s="194"/>
+      <c r="W56" s="194"/>
+      <c r="X56" s="194"/>
+      <c r="Y56" s="195"/>
       <c r="AA56" s="124"/>
-      <c r="AC56" s="125"/>
-      <c r="AD56" s="126"/>
+      <c r="AC56" s="259"/>
+      <c r="AD56" s="259"/>
+      <c r="AE56" s="259"/>
     </row>
     <row r="57" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="158"/>
-      <c r="B57" s="205" t="s">
+      <c r="B57" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="206"/>
-      <c r="D57" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*9)))</f>
-        <v>0.00</v>
+      <c r="C57" s="189"/>
+      <c r="D57" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((9/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E57" s="246"/>
-      <c r="F57" s="246"/>
-      <c r="G57" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*9))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E57" s="192"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="247"/>
-      <c r="I57" s="247"/>
-      <c r="J57" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D57*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H57" s="192"/>
+      <c r="I57" s="192"/>
+      <c r="J57" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D57)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K57" s="244"/>
-      <c r="L57" s="244"/>
-      <c r="M57" s="245"/>
-      <c r="N57" s="205" t="s">
+      <c r="K57" s="194"/>
+      <c r="L57" s="194"/>
+      <c r="M57" s="195"/>
+      <c r="N57" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="O57" s="206"/>
-      <c r="P57" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*9)))</f>
-        <v>0.00</v>
+      <c r="O57" s="189"/>
+      <c r="P57" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((9/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q57" s="246"/>
-      <c r="R57" s="246"/>
-      <c r="S57" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*9))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="192"/>
+      <c r="S57" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57" s="247"/>
-      <c r="U57" s="247"/>
-      <c r="V57" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P57*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T57" s="192"/>
+      <c r="U57" s="192"/>
+      <c r="V57" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P57)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W57" s="244"/>
-      <c r="X57" s="244"/>
-      <c r="Y57" s="245"/>
-      <c r="Z57" s="157"/>
+      <c r="W57" s="194"/>
+      <c r="X57" s="194"/>
+      <c r="Y57" s="195"/>
       <c r="AA57" s="124"/>
-      <c r="AC57" s="125"/>
-      <c r="AD57" s="126"/>
+      <c r="AC57" s="259"/>
+      <c r="AD57" s="259"/>
+      <c r="AE57" s="259"/>
     </row>
     <row r="58" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="158"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="206"/>
-      <c r="D58" s="246"/>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
-      <c r="G58" s="247"/>
-      <c r="H58" s="247"/>
-      <c r="I58" s="247"/>
-      <c r="J58" s="244"/>
-      <c r="K58" s="244"/>
-      <c r="L58" s="244"/>
-      <c r="M58" s="245"/>
-      <c r="N58" s="205"/>
-      <c r="O58" s="206"/>
-      <c r="P58" s="246"/>
-      <c r="Q58" s="246"/>
-      <c r="R58" s="246"/>
-      <c r="S58" s="247"/>
-      <c r="T58" s="247"/>
-      <c r="U58" s="247"/>
-      <c r="V58" s="244"/>
-      <c r="W58" s="244"/>
-      <c r="X58" s="244"/>
-      <c r="Y58" s="245"/>
-      <c r="Z58" s="157"/>
+      <c r="B58" s="188"/>
+      <c r="C58" s="189"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="194"/>
+      <c r="K58" s="194"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="188"/>
+      <c r="O58" s="189"/>
+      <c r="P58" s="192"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="192"/>
+      <c r="S58" s="192"/>
+      <c r="T58" s="192"/>
+      <c r="U58" s="192"/>
+      <c r="V58" s="194"/>
+      <c r="W58" s="194"/>
+      <c r="X58" s="194"/>
+      <c r="Y58" s="195"/>
       <c r="AA58" s="124"/>
-      <c r="AC58" s="125"/>
-      <c r="AD58" s="126"/>
+      <c r="AC58" s="259"/>
+      <c r="AD58" s="259"/>
+      <c r="AE58" s="259"/>
     </row>
     <row r="59" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="158"/>
-      <c r="B59" s="205" t="s">
+      <c r="B59" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="206"/>
-      <c r="D59" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*10)))</f>
-        <v>0.00</v>
+      <c r="C59" s="189"/>
+      <c r="D59" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((10/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E59" s="246"/>
-      <c r="F59" s="246"/>
-      <c r="G59" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*10))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E59" s="192"/>
+      <c r="F59" s="192"/>
+      <c r="G59" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="247"/>
-      <c r="I59" s="247"/>
-      <c r="J59" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D59*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H59" s="192"/>
+      <c r="I59" s="192"/>
+      <c r="J59" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D59)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="244"/>
-      <c r="L59" s="244"/>
-      <c r="M59" s="245"/>
-      <c r="N59" s="205" t="s">
+      <c r="K59" s="194"/>
+      <c r="L59" s="194"/>
+      <c r="M59" s="195"/>
+      <c r="N59" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="O59" s="206"/>
-      <c r="P59" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*10)))</f>
-        <v>0.00</v>
+      <c r="O59" s="189"/>
+      <c r="P59" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((10/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q59" s="246"/>
-      <c r="R59" s="246"/>
-      <c r="S59" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*10))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q59" s="192"/>
+      <c r="R59" s="192"/>
+      <c r="S59" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="247"/>
-      <c r="U59" s="247"/>
-      <c r="V59" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P59*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T59" s="192"/>
+      <c r="U59" s="192"/>
+      <c r="V59" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P59)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W59" s="244"/>
-      <c r="X59" s="244"/>
-      <c r="Y59" s="245"/>
-      <c r="Z59" s="157"/>
+      <c r="W59" s="194"/>
+      <c r="X59" s="194"/>
+      <c r="Y59" s="195"/>
       <c r="AA59" s="124"/>
-      <c r="AC59" s="125"/>
-      <c r="AD59" s="126"/>
+      <c r="AC59" s="259"/>
+      <c r="AD59" s="259"/>
+      <c r="AE59" s="259"/>
     </row>
     <row r="60" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="158"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="206"/>
-      <c r="D60" s="246"/>
-      <c r="E60" s="246"/>
-      <c r="F60" s="246"/>
-      <c r="G60" s="247"/>
-      <c r="H60" s="247"/>
-      <c r="I60" s="247"/>
-      <c r="J60" s="244"/>
-      <c r="K60" s="244"/>
-      <c r="L60" s="244"/>
-      <c r="M60" s="245"/>
-      <c r="N60" s="205"/>
-      <c r="O60" s="206"/>
-      <c r="P60" s="246"/>
-      <c r="Q60" s="246"/>
-      <c r="R60" s="246"/>
-      <c r="S60" s="247"/>
-      <c r="T60" s="247"/>
-      <c r="U60" s="247"/>
-      <c r="V60" s="244"/>
-      <c r="W60" s="244"/>
-      <c r="X60" s="244"/>
-      <c r="Y60" s="245"/>
-      <c r="Z60" s="157"/>
+      <c r="B60" s="188"/>
+      <c r="C60" s="189"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="192"/>
+      <c r="F60" s="192"/>
+      <c r="G60" s="192"/>
+      <c r="H60" s="192"/>
+      <c r="I60" s="192"/>
+      <c r="J60" s="194"/>
+      <c r="K60" s="194"/>
+      <c r="L60" s="194"/>
+      <c r="M60" s="195"/>
+      <c r="N60" s="188"/>
+      <c r="O60" s="189"/>
+      <c r="P60" s="192"/>
+      <c r="Q60" s="192"/>
+      <c r="R60" s="192"/>
+      <c r="S60" s="192"/>
+      <c r="T60" s="192"/>
+      <c r="U60" s="192"/>
+      <c r="V60" s="194"/>
+      <c r="W60" s="194"/>
+      <c r="X60" s="194"/>
+      <c r="Y60" s="195"/>
       <c r="AA60" s="124"/>
-      <c r="AC60" s="125"/>
-      <c r="AD60" s="126"/>
+      <c r="AC60" s="259"/>
+      <c r="AD60" s="259"/>
+      <c r="AE60" s="259"/>
     </row>
     <row r="61" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="158"/>
-      <c r="B61" s="205" t="s">
+      <c r="B61" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="206"/>
-      <c r="D61" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*11)))</f>
-        <v>0.00</v>
+      <c r="C61" s="189"/>
+      <c r="D61" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((11/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E61" s="246"/>
-      <c r="F61" s="246"/>
-      <c r="G61" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*11))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E61" s="192"/>
+      <c r="F61" s="192"/>
+      <c r="G61" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="247"/>
-      <c r="I61" s="247"/>
-      <c r="J61" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D61*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H61" s="192"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D61)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K61" s="244"/>
-      <c r="L61" s="244"/>
-      <c r="M61" s="245"/>
-      <c r="N61" s="205" t="s">
+      <c r="K61" s="194"/>
+      <c r="L61" s="194"/>
+      <c r="M61" s="195"/>
+      <c r="N61" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="O61" s="206"/>
-      <c r="P61" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*11)))</f>
-        <v>0.00</v>
+      <c r="O61" s="189"/>
+      <c r="P61" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((11/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q61" s="246"/>
-      <c r="R61" s="246"/>
-      <c r="S61" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*11))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q61" s="192"/>
+      <c r="R61" s="192"/>
+      <c r="S61" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T61" s="247"/>
-      <c r="U61" s="247"/>
-      <c r="V61" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P61*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T61" s="192"/>
+      <c r="U61" s="192"/>
+      <c r="V61" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P61)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W61" s="244"/>
-      <c r="X61" s="244"/>
-      <c r="Y61" s="245"/>
-      <c r="Z61" s="157"/>
+      <c r="W61" s="194"/>
+      <c r="X61" s="194"/>
+      <c r="Y61" s="195"/>
       <c r="AA61" s="124"/>
-      <c r="AC61" s="125"/>
-      <c r="AD61" s="126"/>
+      <c r="AC61" s="259"/>
+      <c r="AD61" s="259"/>
+      <c r="AE61" s="259"/>
     </row>
     <row r="62" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="158"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="206"/>
-      <c r="D62" s="246"/>
-      <c r="E62" s="246"/>
-      <c r="F62" s="246"/>
-      <c r="G62" s="247"/>
-      <c r="H62" s="247"/>
-      <c r="I62" s="247"/>
-      <c r="J62" s="244"/>
-      <c r="K62" s="244"/>
-      <c r="L62" s="244"/>
-      <c r="M62" s="245"/>
-      <c r="N62" s="205"/>
-      <c r="O62" s="206"/>
-      <c r="P62" s="246"/>
-      <c r="Q62" s="246"/>
-      <c r="R62" s="246"/>
-      <c r="S62" s="247"/>
-      <c r="T62" s="247"/>
-      <c r="U62" s="247"/>
-      <c r="V62" s="244"/>
-      <c r="W62" s="244"/>
-      <c r="X62" s="244"/>
-      <c r="Y62" s="245"/>
-      <c r="Z62" s="157"/>
+      <c r="B62" s="188"/>
+      <c r="C62" s="189"/>
+      <c r="D62" s="192"/>
+      <c r="E62" s="192"/>
+      <c r="F62" s="192"/>
+      <c r="G62" s="192"/>
+      <c r="H62" s="192"/>
+      <c r="I62" s="192"/>
+      <c r="J62" s="194"/>
+      <c r="K62" s="194"/>
+      <c r="L62" s="194"/>
+      <c r="M62" s="195"/>
+      <c r="N62" s="188"/>
+      <c r="O62" s="189"/>
+      <c r="P62" s="192"/>
+      <c r="Q62" s="192"/>
+      <c r="R62" s="192"/>
+      <c r="S62" s="192"/>
+      <c r="T62" s="192"/>
+      <c r="U62" s="192"/>
+      <c r="V62" s="194"/>
+      <c r="W62" s="194"/>
+      <c r="X62" s="194"/>
+      <c r="Y62" s="195"/>
       <c r="AA62" s="124"/>
-      <c r="AC62" s="125"/>
-      <c r="AD62" s="126"/>
+      <c r="AC62" s="259"/>
+      <c r="AD62" s="259"/>
+      <c r="AE62" s="259"/>
     </row>
     <row r="63" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="158"/>
-      <c r="B63" s="205" t="s">
+      <c r="B63" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="206"/>
-      <c r="D63" s="246" t="str">
-        <f>FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*12)))</f>
-        <v>0.00</v>
+      <c r="C63" s="189"/>
+      <c r="D63" s="192">
+        <f>'Data Input'!$D$16*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((12/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$D$16*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*12))*('Data Input'!$G$12/$V$5))</f>
+      <c r="E63" s="192"/>
+      <c r="F63" s="192"/>
+      <c r="G63" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *D63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="247"/>
-      <c r="I63" s="247"/>
-      <c r="J63" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(D63*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="H63" s="192"/>
+      <c r="I63" s="192"/>
+      <c r="J63" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *D63)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K63" s="244"/>
-      <c r="L63" s="244"/>
-      <c r="M63" s="245"/>
-      <c r="N63" s="205" t="s">
+      <c r="K63" s="194"/>
+      <c r="L63" s="194"/>
+      <c r="M63" s="195"/>
+      <c r="N63" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="O63" s="206"/>
-      <c r="P63" s="246" t="str">
-        <f>FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*12)))</f>
-        <v>0.00</v>
+      <c r="O63" s="189"/>
+      <c r="P63" s="192">
+        <f>'Data Input'!$G$9*(1 + (0.03 * 365) / (365/'Data Input'!$J$14))^((12/12) * (365/'Data Input'!$J$14))</f>
+        <v>0</v>
       </c>
-      <c r="Q63" s="246"/>
-      <c r="R63" s="246"/>
-      <c r="S63" s="247" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$9*(1+(IFERROR($L$20,0.0333))/((365*24)/'Data Input'!$J$14))^(((365*24)/'Data Input'!$J$14)*(365/12*12))*('Data Input'!$G$12/$V$5))</f>
+      <c r="Q63" s="192"/>
+      <c r="R63" s="192"/>
+      <c r="S63" s="192" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED('Data Input'!$G$12/$V$5 *P63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T63" s="247"/>
-      <c r="U63" s="247"/>
-      <c r="V63" s="244" t="e">
-        <f>'Data Input'!$D$14 &amp; FIXED(P63*$G$25*(('Data Input'!$G$12/$V$5)/$L$5))</f>
+      <c r="T63" s="192"/>
+      <c r="U63" s="192"/>
+      <c r="V63" s="194" t="e">
+        <f>'Data Input'!$D$14 &amp; FIXED(FIXED('Data Input'!$G$12/$V$5 *P63)*0.03)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W63" s="244"/>
-      <c r="X63" s="244"/>
-      <c r="Y63" s="245"/>
-      <c r="Z63" s="157"/>
+      <c r="W63" s="194"/>
+      <c r="X63" s="194"/>
+      <c r="Y63" s="195"/>
       <c r="AA63" s="124"/>
-      <c r="AC63" s="125"/>
-      <c r="AD63" s="126"/>
+      <c r="AC63" s="259"/>
+      <c r="AD63" s="259"/>
+      <c r="AE63" s="259"/>
     </row>
     <row r="64" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="158"/>
-      <c r="B64" s="248"/>
-      <c r="C64" s="249"/>
-      <c r="D64" s="250"/>
-      <c r="E64" s="250"/>
-      <c r="F64" s="250"/>
-      <c r="G64" s="251"/>
-      <c r="H64" s="251"/>
-      <c r="I64" s="251"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="252"/>
-      <c r="L64" s="252"/>
-      <c r="M64" s="253"/>
-      <c r="N64" s="248"/>
-      <c r="O64" s="249"/>
-      <c r="P64" s="250"/>
-      <c r="Q64" s="250"/>
-      <c r="R64" s="250"/>
-      <c r="S64" s="251"/>
-      <c r="T64" s="251"/>
-      <c r="U64" s="251"/>
-      <c r="V64" s="252"/>
-      <c r="W64" s="252"/>
-      <c r="X64" s="252"/>
-      <c r="Y64" s="253"/>
-      <c r="Z64" s="157"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="193"/>
+      <c r="E64" s="193"/>
+      <c r="F64" s="193"/>
+      <c r="G64" s="193"/>
+      <c r="H64" s="193"/>
+      <c r="I64" s="193"/>
+      <c r="J64" s="196"/>
+      <c r="K64" s="196"/>
+      <c r="L64" s="196"/>
+      <c r="M64" s="197"/>
+      <c r="N64" s="190"/>
+      <c r="O64" s="191"/>
+      <c r="P64" s="193"/>
+      <c r="Q64" s="193"/>
+      <c r="R64" s="193"/>
+      <c r="S64" s="193"/>
+      <c r="T64" s="193"/>
+      <c r="U64" s="193"/>
+      <c r="V64" s="196"/>
+      <c r="W64" s="196"/>
+      <c r="X64" s="196"/>
+      <c r="Y64" s="197"/>
       <c r="AA64" s="124"/>
-      <c r="AC64" s="125"/>
-      <c r="AD64" s="126"/>
+      <c r="AC64" s="259"/>
+      <c r="AD64" s="259"/>
+      <c r="AE64" s="259"/>
     </row>
     <row r="65" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="158"/>
@@ -15918,7 +15957,6 @@
       <c r="W65" s="127"/>
       <c r="X65" s="127"/>
       <c r="Y65" s="127"/>
-      <c r="Z65" s="157"/>
       <c r="AA65" s="124"/>
       <c r="AC65" s="125"/>
       <c r="AD65" s="126"/>
@@ -15949,7 +15987,6 @@
       <c r="W66" s="127"/>
       <c r="X66" s="127"/>
       <c r="Y66" s="127"/>
-      <c r="Z66" s="157"/>
       <c r="AA66" s="124"/>
       <c r="AC66" s="125"/>
       <c r="AD66" s="126"/>
@@ -15979,7 +16016,6 @@
       <c r="W67" s="147"/>
       <c r="X67" s="147"/>
       <c r="Y67" s="147"/>
-      <c r="Z67" s="157"/>
       <c r="AA67" s="124"/>
       <c r="AC67" s="125"/>
       <c r="AD67" s="126"/>
@@ -16010,7 +16046,6 @@
       <c r="W68" s="147"/>
       <c r="X68" s="147"/>
       <c r="Y68" s="147"/>
-      <c r="Z68" s="157"/>
       <c r="AA68" s="124"/>
       <c r="AC68" s="125"/>
       <c r="AD68" s="126"/>
@@ -16041,7 +16076,6 @@
       <c r="W69" s="147"/>
       <c r="X69" s="147"/>
       <c r="Y69" s="147"/>
-      <c r="Z69" s="157"/>
       <c r="AA69" s="124"/>
       <c r="AC69" s="125"/>
       <c r="AD69" s="126"/>
@@ -16071,7 +16105,6 @@
       <c r="W70" s="148"/>
       <c r="X70" s="148"/>
       <c r="Y70" s="148"/>
-      <c r="Z70" s="157"/>
       <c r="AA70" s="124"/>
       <c r="AC70" s="125"/>
       <c r="AD70" s="126"/>
@@ -16102,7 +16135,6 @@
       <c r="W71" s="148"/>
       <c r="X71" s="148"/>
       <c r="Y71" s="148"/>
-      <c r="Z71" s="157"/>
       <c r="AA71" s="124"/>
       <c r="AC71" s="125"/>
       <c r="AD71" s="126"/>
@@ -16135,7 +16167,8 @@
       <c r="Y72" s="148"/>
       <c r="Z72" s="157"/>
       <c r="AA72" s="124"/>
-      <c r="AC72" s="125"/>
+      <c r="AB72" s="257"/>
+      <c r="AC72" s="258"/>
       <c r="AD72" s="126"/>
     </row>
     <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -16166,8 +16199,9 @@
       <c r="Y73" s="127"/>
       <c r="Z73" s="157"/>
       <c r="AA73" s="124"/>
-      <c r="AC73" s="125"/>
-      <c r="AD73" s="126"/>
+      <c r="AB73" s="257"/>
+      <c r="AC73" s="258"/>
+      <c r="AD73" s="258"/>
     </row>
     <row r="74" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="158"/>
@@ -16197,8 +16231,9 @@
       <c r="Y74" s="127"/>
       <c r="Z74" s="157"/>
       <c r="AA74" s="124"/>
-      <c r="AC74" s="125"/>
-      <c r="AD74" s="126"/>
+      <c r="AB74" s="257"/>
+      <c r="AC74" s="258"/>
+      <c r="AD74" s="258"/>
     </row>
     <row r="75" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="158"/>
@@ -16228,8 +16263,9 @@
       <c r="Y75" s="147"/>
       <c r="Z75" s="157"/>
       <c r="AA75" s="124"/>
-      <c r="AC75" s="125"/>
-      <c r="AD75" s="126"/>
+      <c r="AB75" s="257"/>
+      <c r="AC75" s="258"/>
+      <c r="AD75" s="258"/>
     </row>
     <row r="76" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="158"/>
@@ -16259,8 +16295,9 @@
       <c r="Y76" s="147"/>
       <c r="Z76" s="157"/>
       <c r="AA76" s="124"/>
-      <c r="AC76" s="125"/>
-      <c r="AD76" s="126"/>
+      <c r="AB76" s="257"/>
+      <c r="AC76" s="258"/>
+      <c r="AD76" s="258"/>
     </row>
     <row r="77" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="158"/>
@@ -16290,8 +16327,9 @@
       <c r="Y77" s="147"/>
       <c r="Z77" s="157"/>
       <c r="AA77" s="124"/>
-      <c r="AC77" s="125"/>
-      <c r="AD77" s="126"/>
+      <c r="AB77" s="257"/>
+      <c r="AC77" s="258"/>
+      <c r="AD77" s="258"/>
     </row>
     <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="158"/>
@@ -16321,8 +16359,9 @@
       <c r="Y78" s="148"/>
       <c r="Z78" s="157"/>
       <c r="AA78" s="124"/>
-      <c r="AC78" s="125"/>
-      <c r="AD78" s="126"/>
+      <c r="AB78" s="257"/>
+      <c r="AC78" s="258"/>
+      <c r="AD78" s="258"/>
     </row>
     <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="158"/>
@@ -16352,8 +16391,9 @@
       <c r="Y79" s="148"/>
       <c r="Z79" s="157"/>
       <c r="AA79" s="124"/>
-      <c r="AC79" s="125"/>
-      <c r="AD79" s="126"/>
+      <c r="AB79" s="257"/>
+      <c r="AC79" s="258"/>
+      <c r="AD79" s="258"/>
     </row>
     <row r="80" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="158"/>
@@ -16383,7 +16423,8 @@
       <c r="Y80" s="148"/>
       <c r="Z80" s="157"/>
       <c r="AA80" s="124"/>
-      <c r="AC80" s="125"/>
+      <c r="AB80" s="257"/>
+      <c r="AC80" s="258"/>
       <c r="AD80" s="126"/>
     </row>
     <row r="81" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -16414,7 +16455,8 @@
       <c r="Y81" s="86"/>
       <c r="Z81" s="157"/>
       <c r="AA81" s="124"/>
-      <c r="AC81" s="125"/>
+      <c r="AB81" s="257"/>
+      <c r="AC81" s="258"/>
       <c r="AD81" s="126"/>
     </row>
     <row r="82" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -26188,8 +26230,185 @@
       <c r="AF1492" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/UXNdTxZpllJdvyRzu4J66y/7CyOa3zvwNg2YbB+a95XhYG79de24RJuzDeSiq70W1V9OhSh0ekqhAROilfowA==" saltValue="Gz0iT1WYGw1u9524ymEhEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="187">
+  <sheetProtection algorithmName="SHA-512" hashValue="tii35G0IWNAUGNHsb32bpj2W55BkSA4atYKH7pzomH5/SugUT1RlqoZf6j239OzgfSRzxWlXq27nBlmcZb+jpg==" saltValue="hw9Rv1cHJGtSWBZoBFSEgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="201">
+    <mergeCell ref="AC57:AE58"/>
+    <mergeCell ref="AC59:AE60"/>
+    <mergeCell ref="AC61:AE62"/>
+    <mergeCell ref="AC63:AE64"/>
+    <mergeCell ref="AC33:AE34"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="AC41:AE42"/>
+    <mergeCell ref="AC43:AE44"/>
+    <mergeCell ref="AC45:AE46"/>
+    <mergeCell ref="AC47:AE48"/>
+    <mergeCell ref="AC49:AE50"/>
+    <mergeCell ref="AC51:AE52"/>
+    <mergeCell ref="AC53:AE54"/>
+    <mergeCell ref="AC55:AE56"/>
+    <mergeCell ref="V5:Y7"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="Q10:T12"/>
+    <mergeCell ref="Q18:T19"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="Q5:T7"/>
+    <mergeCell ref="Q13:T14"/>
+    <mergeCell ref="Q15:T17"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="Q23:T24"/>
+    <mergeCell ref="Q25:T27"/>
+    <mergeCell ref="V10:Y12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="L18:O19"/>
+    <mergeCell ref="L20:O22"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="L5:O7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="B10:E12"/>
+    <mergeCell ref="L13:O14"/>
+    <mergeCell ref="L15:O17"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="G18:J19"/>
+    <mergeCell ref="G20:J22"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J7"/>
+    <mergeCell ref="G8:J9"/>
+    <mergeCell ref="G10:J12"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AH11:AK12"/>
+    <mergeCell ref="AH13:AK15"/>
+    <mergeCell ref="V13:Y14"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="L29:O30"/>
+    <mergeCell ref="L31:O33"/>
+    <mergeCell ref="V23:Y24"/>
+    <mergeCell ref="V25:Y27"/>
+    <mergeCell ref="L10:O12"/>
+    <mergeCell ref="L8:O9"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B15:E17"/>
+    <mergeCell ref="L23:O24"/>
+    <mergeCell ref="L25:O27"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B31:E33"/>
+    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="G15:J17"/>
+    <mergeCell ref="V3:Y4"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="V8:Y9"/>
+    <mergeCell ref="B28:Y28"/>
+    <mergeCell ref="V15:Y17"/>
+    <mergeCell ref="Q29:T30"/>
+    <mergeCell ref="Q31:T33"/>
+    <mergeCell ref="V31:Y33"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="G23:J24"/>
+    <mergeCell ref="V18:Y19"/>
+    <mergeCell ref="V20:Y22"/>
+    <mergeCell ref="V29:Y30"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="B20:E22"/>
+    <mergeCell ref="Q20:T22"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="B25:E27"/>
+    <mergeCell ref="G29:J30"/>
+    <mergeCell ref="G31:J33"/>
+    <mergeCell ref="J37:M38"/>
+    <mergeCell ref="J39:M40"/>
+    <mergeCell ref="J41:M42"/>
+    <mergeCell ref="D43:F44"/>
+    <mergeCell ref="G43:I44"/>
+    <mergeCell ref="J43:M44"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D41:F42"/>
+    <mergeCell ref="G39:I40"/>
+    <mergeCell ref="G37:I38"/>
+    <mergeCell ref="G41:I42"/>
+    <mergeCell ref="G51:I52"/>
+    <mergeCell ref="J51:M52"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="D45:F46"/>
+    <mergeCell ref="G45:I46"/>
+    <mergeCell ref="J45:M46"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="D47:F48"/>
+    <mergeCell ref="G47:I48"/>
+    <mergeCell ref="J47:M48"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:F64"/>
+    <mergeCell ref="G63:I64"/>
+    <mergeCell ref="J63:M64"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:F58"/>
+    <mergeCell ref="G57:I58"/>
+    <mergeCell ref="J57:M58"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:I60"/>
+    <mergeCell ref="J59:M60"/>
+    <mergeCell ref="B34:M36"/>
+    <mergeCell ref="N34:Y36"/>
+    <mergeCell ref="N37:O38"/>
+    <mergeCell ref="P37:Q38"/>
+    <mergeCell ref="S37:U38"/>
+    <mergeCell ref="V37:Y38"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="G61:I62"/>
+    <mergeCell ref="J61:M62"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="D53:F54"/>
+    <mergeCell ref="G53:I54"/>
+    <mergeCell ref="J53:M54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:F56"/>
+    <mergeCell ref="G55:I56"/>
+    <mergeCell ref="J55:M56"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:F50"/>
+    <mergeCell ref="G49:I50"/>
+    <mergeCell ref="J49:M50"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:F52"/>
+    <mergeCell ref="N43:O44"/>
+    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="S43:U44"/>
+    <mergeCell ref="V43:Y44"/>
+    <mergeCell ref="N45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="S45:U46"/>
+    <mergeCell ref="V45:Y46"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="S39:U40"/>
+    <mergeCell ref="V39:Y40"/>
+    <mergeCell ref="N41:O42"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:Y42"/>
+    <mergeCell ref="V51:Y52"/>
+    <mergeCell ref="N53:O54"/>
+    <mergeCell ref="P53:R54"/>
+    <mergeCell ref="S53:U54"/>
+    <mergeCell ref="V53:Y54"/>
+    <mergeCell ref="N47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="S47:U48"/>
+    <mergeCell ref="V47:Y48"/>
+    <mergeCell ref="N49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="S49:U50"/>
+    <mergeCell ref="V49:Y50"/>
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="N63:O64"/>
     <mergeCell ref="P63:R64"/>
@@ -26214,169 +26433,6 @@
     <mergeCell ref="N51:O52"/>
     <mergeCell ref="P51:R52"/>
     <mergeCell ref="S51:U52"/>
-    <mergeCell ref="V51:Y52"/>
-    <mergeCell ref="N53:O54"/>
-    <mergeCell ref="P53:R54"/>
-    <mergeCell ref="S53:U54"/>
-    <mergeCell ref="V53:Y54"/>
-    <mergeCell ref="N47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="S47:U48"/>
-    <mergeCell ref="V47:Y48"/>
-    <mergeCell ref="N49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="S49:U50"/>
-    <mergeCell ref="V49:Y50"/>
-    <mergeCell ref="N43:O44"/>
-    <mergeCell ref="P43:R44"/>
-    <mergeCell ref="S43:U44"/>
-    <mergeCell ref="V43:Y44"/>
-    <mergeCell ref="N45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="S45:U46"/>
-    <mergeCell ref="V45:Y46"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="S39:U40"/>
-    <mergeCell ref="V39:Y40"/>
-    <mergeCell ref="N41:O42"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:Y42"/>
-    <mergeCell ref="B34:M36"/>
-    <mergeCell ref="N34:Y36"/>
-    <mergeCell ref="N37:O38"/>
-    <mergeCell ref="P37:Q38"/>
-    <mergeCell ref="S37:U38"/>
-    <mergeCell ref="V37:Y38"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:I62"/>
-    <mergeCell ref="J61:M62"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="D53:F54"/>
-    <mergeCell ref="G53:I54"/>
-    <mergeCell ref="J53:M54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:F56"/>
-    <mergeCell ref="G55:I56"/>
-    <mergeCell ref="J55:M56"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:F50"/>
-    <mergeCell ref="G49:I50"/>
-    <mergeCell ref="J49:M50"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:F52"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:F64"/>
-    <mergeCell ref="G63:I64"/>
-    <mergeCell ref="J63:M64"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:F58"/>
-    <mergeCell ref="G57:I58"/>
-    <mergeCell ref="J57:M58"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:I60"/>
-    <mergeCell ref="J59:M60"/>
-    <mergeCell ref="G51:I52"/>
-    <mergeCell ref="J51:M52"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="D45:F46"/>
-    <mergeCell ref="G45:I46"/>
-    <mergeCell ref="J45:M46"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="G47:I48"/>
-    <mergeCell ref="J47:M48"/>
-    <mergeCell ref="J37:M38"/>
-    <mergeCell ref="J39:M40"/>
-    <mergeCell ref="J41:M42"/>
-    <mergeCell ref="D43:F44"/>
-    <mergeCell ref="G43:I44"/>
-    <mergeCell ref="J43:M44"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="D41:F42"/>
-    <mergeCell ref="G39:I40"/>
-    <mergeCell ref="G37:I38"/>
-    <mergeCell ref="G41:I42"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="V8:Y9"/>
-    <mergeCell ref="B28:Y28"/>
-    <mergeCell ref="V15:Y17"/>
-    <mergeCell ref="Q29:T30"/>
-    <mergeCell ref="Q31:T33"/>
-    <mergeCell ref="V31:Y33"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="G23:J24"/>
-    <mergeCell ref="V18:Y19"/>
-    <mergeCell ref="V20:Y22"/>
-    <mergeCell ref="V29:Y30"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="B20:E22"/>
-    <mergeCell ref="Q20:T22"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="B25:E27"/>
-    <mergeCell ref="G29:J30"/>
-    <mergeCell ref="G31:J33"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AH11:AK12"/>
-    <mergeCell ref="AH13:AK15"/>
-    <mergeCell ref="V13:Y14"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="L29:O30"/>
-    <mergeCell ref="L31:O33"/>
-    <mergeCell ref="V23:Y24"/>
-    <mergeCell ref="V25:Y27"/>
-    <mergeCell ref="L10:O12"/>
-    <mergeCell ref="L8:O9"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B15:E17"/>
-    <mergeCell ref="L23:O24"/>
-    <mergeCell ref="L25:O27"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B31:E33"/>
-    <mergeCell ref="G13:J14"/>
-    <mergeCell ref="G15:J17"/>
-    <mergeCell ref="V3:Y4"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="Q23:T24"/>
-    <mergeCell ref="Q25:T27"/>
-    <mergeCell ref="V10:Y12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="L18:O19"/>
-    <mergeCell ref="L20:O22"/>
-    <mergeCell ref="L3:O4"/>
-    <mergeCell ref="L5:O7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="B10:E12"/>
-    <mergeCell ref="L13:O14"/>
-    <mergeCell ref="L15:O17"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="G18:J19"/>
-    <mergeCell ref="G20:J22"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J7"/>
-    <mergeCell ref="G8:J9"/>
-    <mergeCell ref="G10:J12"/>
-    <mergeCell ref="V5:Y7"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="Q10:T12"/>
-    <mergeCell ref="Q18:T19"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="Q5:T7"/>
-    <mergeCell ref="Q13:T14"/>
-    <mergeCell ref="Q15:T17"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
